--- a/capiq_data/in_process_data/IQ24809.xlsx
+++ b/capiq_data/in_process_data/IQ24809.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760DB0E9-10E8-44AE-B947-3007D62AB907}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41B42C5-31E5-4634-9B48-A8C3A1A972F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"76939c66-4e23-4517-937e-8b3cecbb15eb"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"19984068-f38c-4be1-89cb-618fbbfe37ba"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>160.5</v>
+        <v>26.190999999999999</v>
       </c>
       <c r="D2">
-        <v>19888.609</v>
+        <v>3307.1950000000002</v>
       </c>
       <c r="E2">
-        <v>3551.3150000000001</v>
+        <v>722.93</v>
       </c>
       <c r="F2">
-        <v>580.23199999999997</v>
+        <v>137.43299999999999</v>
       </c>
       <c r="G2">
-        <v>10428.173000000001</v>
+        <v>2807.7489999999998</v>
       </c>
       <c r="H2">
-        <v>14132.319</v>
+        <v>2955.7570000000001</v>
       </c>
       <c r="I2">
-        <v>8467.0040000000008</v>
+        <v>1755.4690000000001</v>
       </c>
       <c r="J2">
-        <v>1287.4100000000001</v>
+        <v>693.15200000000004</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,40 +889,40 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-285.012</v>
+        <v>-20.056000000000001</v>
       </c>
       <c r="N2">
-        <v>9640.9050000000007</v>
+        <v>1928.2059999999999</v>
       </c>
       <c r="O2">
-        <v>11170.313</v>
+        <v>2632.9839999999999</v>
       </c>
       <c r="P2">
-        <v>1402.789</v>
+        <v>693.15200000000004</v>
       </c>
       <c r="Q2">
-        <v>-257.28699999999998</v>
+        <v>41.542000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2962.0059999999999</v>
+        <v>322.77300000000002</v>
       </c>
       <c r="U2">
-        <v>1400.895</v>
+        <v>162.36000000000001</v>
       </c>
       <c r="V2">
-        <v>-99.2</v>
+        <v>-234.12899999999999</v>
       </c>
       <c r="W2">
-        <v>-27.734999999999999</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-107.996</v>
+        <v>280.84899999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>160.5</v>
+        <v>26.190999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>214.381</v>
+        <v>31.515999999999998</v>
       </c>
       <c r="D3">
-        <v>19760.257000000001</v>
+        <v>3480.998</v>
       </c>
       <c r="E3">
-        <v>3802.24</v>
+        <v>676.654</v>
       </c>
       <c r="F3">
-        <v>687.33600000000001</v>
+        <v>151.16900000000001</v>
       </c>
       <c r="G3">
-        <v>10956.245999999999</v>
+        <v>2627.4650000000001</v>
       </c>
       <c r="H3">
-        <v>14681.016</v>
+        <v>2784.41</v>
       </c>
       <c r="I3">
-        <v>8909.4809999999998</v>
+        <v>1756.364</v>
       </c>
       <c r="J3">
-        <v>1342.5809999999999</v>
+        <v>473.613</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9950.1720000000005</v>
+        <v>1937.826</v>
       </c>
       <c r="O3">
-        <v>11547.986000000001</v>
+        <v>2418.973</v>
       </c>
       <c r="P3">
-        <v>1342.8589999999999</v>
+        <v>473.613</v>
       </c>
       <c r="Q3">
-        <v>511.541</v>
+        <v>-36.091999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3133.03</v>
+        <v>365.43700000000001</v>
       </c>
       <c r="U3">
-        <v>1912.4359999999999</v>
+        <v>126.268</v>
       </c>
       <c r="V3">
-        <v>676.404</v>
+        <v>173.70599999999999</v>
       </c>
       <c r="W3">
-        <v>-27.536000000000001</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-121.181</v>
+        <v>-212.75200000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-3.282</v>
       </c>
       <c r="AA3">
-        <v>214.381</v>
+        <v>31.515999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>184.41900000000001</v>
+        <v>31.506</v>
       </c>
       <c r="D4">
-        <v>20161.022000000001</v>
+        <v>3518.9290000000001</v>
       </c>
       <c r="E4">
-        <v>3907.1120000000001</v>
+        <v>677.18</v>
       </c>
       <c r="F4">
-        <v>653.58100000000002</v>
+        <v>144.93899999999999</v>
       </c>
       <c r="G4">
-        <v>11121.305</v>
+        <v>2731.1289999999999</v>
       </c>
       <c r="H4">
-        <v>14855.728999999999</v>
+        <v>2887.944</v>
       </c>
       <c r="I4">
-        <v>8893.3320000000003</v>
+        <v>1639.876</v>
       </c>
       <c r="J4">
-        <v>1361.8889999999999</v>
+        <v>640.93399999999997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10007.785</v>
+        <v>1833.835</v>
       </c>
       <c r="O4">
-        <v>11652.648999999999</v>
+        <v>2485.0189999999998</v>
       </c>
       <c r="P4">
-        <v>1362.0640000000001</v>
+        <v>640.93399999999997</v>
       </c>
       <c r="Q4">
-        <v>88.016999999999996</v>
+        <v>-31.97</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3203.08</v>
+        <v>402.92500000000001</v>
       </c>
       <c r="U4">
-        <v>2000.453</v>
+        <v>94.298000000000002</v>
       </c>
       <c r="V4">
-        <v>230.64099999999999</v>
+        <v>-193.37200000000001</v>
       </c>
       <c r="W4">
-        <v>-31.649000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-109.8</v>
+        <v>173.767</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1.9570000000000001</v>
       </c>
       <c r="AA4">
-        <v>184.41900000000001</v>
+        <v>31.506</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>34.582999999999998</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5884.2309999999998</v>
       </c>
       <c r="E5">
-        <v>3793.85</v>
+        <v>2142.663</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>272.17700000000002</v>
       </c>
       <c r="G5">
-        <v>11375.040999999999</v>
+        <v>7512.5020000000004</v>
       </c>
       <c r="H5">
-        <v>14982.671</v>
+        <v>10291.245000000001</v>
       </c>
       <c r="I5">
-        <v>9191.4279999999999</v>
+        <v>4991.884</v>
       </c>
       <c r="J5">
-        <v>972.86300000000006</v>
+        <v>1871.9110000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10875.263999999999</v>
+        <v>5532.4530000000004</v>
       </c>
       <c r="O5">
-        <v>12115.813</v>
+        <v>7452.6809999999996</v>
       </c>
       <c r="P5">
-        <v>1364.952</v>
+        <v>1874.3789999999999</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>203.328</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>9400</v>
+        <v>12200</v>
       </c>
       <c r="T5">
-        <v>2866.8580000000002</v>
+        <v>2838.5639999999999</v>
       </c>
       <c r="U5">
-        <v>1825.99</v>
+        <v>297.62599999999998</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>207.941</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-136.69200000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1.403</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>34.582999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>162.11600000000001</v>
+        <v>67.882999999999996</v>
       </c>
       <c r="D6">
-        <v>19981.185000000001</v>
+        <v>11068.78</v>
       </c>
       <c r="E6">
-        <v>3724.4560000000001</v>
+        <v>2106.0680000000002</v>
       </c>
       <c r="F6">
-        <v>573.26199999999994</v>
+        <v>471.43299999999999</v>
       </c>
       <c r="G6">
-        <v>11955.78</v>
+        <v>8158.75</v>
       </c>
       <c r="H6">
-        <v>15978.266</v>
+        <v>10933.32</v>
       </c>
       <c r="I6">
-        <v>9589.0190000000002</v>
+        <v>5122.0860000000002</v>
       </c>
       <c r="J6">
-        <v>1481.9390000000001</v>
+        <v>2249.1410000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,40 +1221,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-142.63800000000001</v>
+        <v>-23.074999999999999</v>
       </c>
       <c r="N6">
-        <v>11301.377</v>
+        <v>5722.2</v>
       </c>
       <c r="O6">
-        <v>13073.666999999999</v>
+        <v>8015.2669999999998</v>
       </c>
       <c r="P6">
-        <v>1929.02</v>
+        <v>2264.1410000000001</v>
       </c>
       <c r="Q6">
-        <v>544.34500000000003</v>
+        <v>-40.936999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2904.5990000000002</v>
+        <v>2918.0529999999999</v>
       </c>
       <c r="U6">
-        <v>2370.335</v>
+        <v>256.68900000000002</v>
       </c>
       <c r="V6">
-        <v>431.70299999999997</v>
+        <v>-418.54899999999998</v>
       </c>
       <c r="W6">
-        <v>-33.707999999999998</v>
+        <v>-2.5950000000000002</v>
       </c>
       <c r="X6">
-        <v>411.28100000000001</v>
+        <v>395.86799999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>162.11600000000001</v>
+        <v>67.882999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>212.10499999999999</v>
+        <v>91.873999999999995</v>
       </c>
       <c r="D7">
-        <v>19708.370999999999</v>
+        <v>10944.267</v>
       </c>
       <c r="E7">
-        <v>3868.6469999999999</v>
+        <v>2061.3310000000001</v>
       </c>
       <c r="F7">
-        <v>679.74099999999999</v>
+        <v>514.49300000000005</v>
       </c>
       <c r="G7">
-        <v>11603.641</v>
+        <v>7838.9009999999998</v>
       </c>
       <c r="H7">
-        <v>15645.036</v>
+        <v>10600.218999999999</v>
       </c>
       <c r="I7">
-        <v>9249.7659999999996</v>
+        <v>5076.7669999999998</v>
       </c>
       <c r="J7">
-        <v>1489.971</v>
+        <v>1783.8409999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10915</v>
+        <v>5723.3919999999998</v>
       </c>
       <c r="O7">
-        <v>12698.561</v>
+        <v>7550.4930000000004</v>
       </c>
       <c r="P7">
-        <v>1882.135</v>
+        <v>1813.8409999999999</v>
       </c>
       <c r="Q7">
-        <v>-43.241</v>
+        <v>207.126</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2946.4749999999999</v>
+        <v>3049.7260000000001</v>
       </c>
       <c r="U7">
-        <v>2327.0940000000001</v>
+        <v>463.815</v>
       </c>
       <c r="V7">
-        <v>236.42099999999999</v>
+        <v>644.00300000000004</v>
       </c>
       <c r="W7">
-        <v>-33.720999999999997</v>
+        <v>-2.6070000000000002</v>
       </c>
       <c r="X7">
-        <v>-232.44499999999999</v>
+        <v>-421.77300000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>212.10499999999999</v>
+        <v>91.873999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>181.27099999999999</v>
+        <v>90.224000000000004</v>
       </c>
       <c r="D8">
-        <v>19326.807000000001</v>
+        <v>11620.826999999999</v>
       </c>
       <c r="E8">
-        <v>3943.3470000000002</v>
+        <v>2131.2730000000001</v>
       </c>
       <c r="F8">
-        <v>667.86599999999999</v>
+        <v>509.92899999999997</v>
       </c>
       <c r="G8">
-        <v>11170.422</v>
+        <v>7687.4960000000001</v>
       </c>
       <c r="H8">
-        <v>15747.592000000001</v>
+        <v>10432.694</v>
       </c>
       <c r="I8">
-        <v>9170.8629999999994</v>
+        <v>4764.3159999999998</v>
       </c>
       <c r="J8">
-        <v>1483.7260000000001</v>
+        <v>1768.6310000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10951.362999999999</v>
+        <v>5443.3140000000003</v>
       </c>
       <c r="O8">
-        <v>12817.877</v>
+        <v>7242.6229999999996</v>
       </c>
       <c r="P8">
-        <v>1875.972</v>
+        <v>1813.6310000000001</v>
       </c>
       <c r="Q8">
-        <v>-671.346</v>
+        <v>-100.40900000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2929.7150000000001</v>
+        <v>3190.0709999999999</v>
       </c>
       <c r="U8">
-        <v>1655.748</v>
+        <v>363.40600000000001</v>
       </c>
       <c r="V8">
-        <v>91.930999999999997</v>
+        <v>-109.07599999999999</v>
       </c>
       <c r="W8">
-        <v>-32.652000000000001</v>
+        <v>-2.64</v>
       </c>
       <c r="X8">
-        <v>-202.80799999999999</v>
+        <v>31.911999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>181.27099999999999</v>
+        <v>90.224000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>163.494</v>
+        <v>94.96</v>
       </c>
       <c r="D9">
-        <v>19064.442999999999</v>
+        <v>11600.92</v>
       </c>
       <c r="E9">
-        <v>3784.6190000000001</v>
+        <v>2222.1559999999999</v>
       </c>
       <c r="F9">
-        <v>699.01700000000005</v>
+        <v>528.61900000000003</v>
       </c>
       <c r="G9">
-        <v>11058.464</v>
+        <v>8349.6370000000006</v>
       </c>
       <c r="H9">
-        <v>15442.255999999999</v>
+        <v>11213.012000000001</v>
       </c>
       <c r="I9">
-        <v>9492.5889999999999</v>
+        <v>5367.8370000000004</v>
       </c>
       <c r="J9">
-        <v>1395.931</v>
+        <v>1756.4939999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,120 +1473,120 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11265.585999999999</v>
+        <v>6099.5169999999998</v>
       </c>
       <c r="O9">
-        <v>12987.414000000001</v>
+        <v>7896.674</v>
       </c>
       <c r="P9">
-        <v>1395.931</v>
+        <v>1817.3130000000001</v>
       </c>
       <c r="Q9">
-        <v>-589.14</v>
+        <v>299.93400000000003</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="T9">
-        <v>2454.8420000000001</v>
+        <v>3316.3380000000002</v>
       </c>
       <c r="U9">
-        <v>1066.6079999999999</v>
+        <v>663.34</v>
       </c>
       <c r="V9">
-        <v>545.39400000000001</v>
+        <v>419.548</v>
       </c>
       <c r="W9">
-        <v>-32.679000000000002</v>
+        <v>-2.6579999999999999</v>
       </c>
       <c r="X9">
-        <v>-1092.9100000000001</v>
+        <v>26.594999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-4.13</v>
       </c>
       <c r="AA9">
-        <v>163.494</v>
+        <v>94.96</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>168.61099999999999</v>
+        <v>92.739000000000004</v>
       </c>
       <c r="D10">
-        <v>21059.811000000002</v>
+        <v>12434.532999999999</v>
       </c>
       <c r="E10">
-        <v>4361.2659999999996</v>
+        <v>2328.3980000000001</v>
       </c>
       <c r="F10">
-        <v>648.52</v>
+        <v>521.42499999999995</v>
       </c>
       <c r="G10">
-        <v>11022.199000000001</v>
+        <v>9095.7710000000006</v>
       </c>
       <c r="H10">
-        <v>15495.531999999999</v>
+        <v>11959.172</v>
       </c>
       <c r="I10">
-        <v>9879.85</v>
+        <v>5542.1949999999997</v>
       </c>
       <c r="J10">
-        <v>1396.107</v>
+        <v>1991.7059999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-796</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N10">
-        <v>11435.736999999999</v>
+        <v>6505.4080000000004</v>
       </c>
       <c r="O10">
-        <v>13158.297</v>
+        <v>8539.1479999999992</v>
       </c>
       <c r="P10">
-        <v>1396.107</v>
+        <v>2202.7040000000002</v>
       </c>
       <c r="Q10">
-        <v>-649.20399999999995</v>
+        <v>-296.56400000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2337.2350000000001</v>
+        <v>3420.0239999999999</v>
       </c>
       <c r="U10">
-        <v>417.404</v>
+        <v>366.77600000000001</v>
       </c>
       <c r="V10">
-        <v>-241.70699999999999</v>
+        <v>-666.34900000000005</v>
       </c>
       <c r="W10">
-        <v>-49.594999999999999</v>
+        <v>-2.6739999999999999</v>
       </c>
       <c r="X10">
-        <v>-346.11799999999999</v>
+        <v>387.62400000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>168.61099999999999</v>
+        <v>92.739000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>45.634</v>
+        <v>116.414</v>
       </c>
       <c r="D11">
-        <v>20523.668000000001</v>
+        <v>12162.540999999999</v>
       </c>
       <c r="E11">
-        <v>4180.4489999999996</v>
+        <v>2163.665</v>
       </c>
       <c r="F11">
-        <v>713.53300000000002</v>
+        <v>581.18899999999996</v>
       </c>
       <c r="G11">
-        <v>11724.784</v>
+        <v>9304.6569999999992</v>
       </c>
       <c r="H11">
-        <v>16111.431</v>
+        <v>12323.638999999999</v>
       </c>
       <c r="I11">
-        <v>10362.227000000001</v>
+        <v>5782.8580000000002</v>
       </c>
       <c r="J11">
-        <v>1396.2719999999999</v>
+        <v>2000.79</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12042.651</v>
+        <v>6588.3239999999996</v>
       </c>
       <c r="O11">
-        <v>13765.151</v>
+        <v>8631.6849999999995</v>
       </c>
       <c r="P11">
-        <v>1396.2719999999999</v>
+        <v>2061.7379999999998</v>
       </c>
       <c r="Q11">
-        <v>929.89300000000003</v>
+        <v>-140.82</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2346.2800000000002</v>
+        <v>3691.9540000000002</v>
       </c>
       <c r="U11">
-        <v>1347.297</v>
+        <v>225.95599999999999</v>
       </c>
       <c r="V11">
-        <v>985.36199999999997</v>
+        <v>51.078000000000003</v>
       </c>
       <c r="W11">
-        <v>-48.607999999999997</v>
+        <v>-2.758</v>
       </c>
       <c r="X11">
-        <v>-18.908999999999999</v>
+        <v>-141.94399999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>45.634</v>
+        <v>116.414</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>168.43899999999999</v>
+        <v>112.54600000000001</v>
       </c>
       <c r="D12">
-        <v>21906.648000000001</v>
+        <v>12420.671</v>
       </c>
       <c r="E12">
-        <v>4585.4880000000003</v>
+        <v>2500.7759999999998</v>
       </c>
       <c r="F12">
-        <v>556.46600000000001</v>
+        <v>560.37900000000002</v>
       </c>
       <c r="G12">
-        <v>12139.073</v>
+        <v>9470.2369999999992</v>
       </c>
       <c r="H12">
-        <v>16579.331999999999</v>
+        <v>12609.772000000001</v>
       </c>
       <c r="I12">
-        <v>11009.224</v>
+        <v>5588.1379999999999</v>
       </c>
       <c r="J12">
-        <v>1396.4390000000001</v>
+        <v>2238.79</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12441.647999999999</v>
+        <v>6438.5439999999999</v>
       </c>
       <c r="O12">
-        <v>14161.138000000001</v>
+        <v>8722.5920000000006</v>
       </c>
       <c r="P12">
-        <v>1396.4390000000001</v>
+        <v>2299.6970000000001</v>
       </c>
       <c r="Q12">
-        <v>220.28800000000001</v>
+        <v>-1.133</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2418.194</v>
+        <v>3887.18</v>
       </c>
       <c r="U12">
-        <v>1567.585</v>
+        <v>224.82300000000001</v>
       </c>
       <c r="V12">
-        <v>75.409000000000006</v>
+        <v>-177.13300000000001</v>
       </c>
       <c r="W12">
-        <v>-48.802</v>
+        <v>-2.7650000000000001</v>
       </c>
       <c r="X12">
-        <v>-135.614</v>
+        <v>252.458</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>168.43899999999999</v>
+        <v>112.54600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>51.023000000000003</v>
+        <v>119.53</v>
       </c>
       <c r="D13">
-        <v>24469.040000000001</v>
+        <v>12639.583000000001</v>
       </c>
       <c r="E13">
-        <v>6051.92</v>
+        <v>2295.4369999999999</v>
       </c>
       <c r="F13">
-        <v>566.41700000000003</v>
+        <v>584.16600000000005</v>
       </c>
       <c r="G13">
-        <v>14393.651</v>
+        <v>8858.518</v>
       </c>
       <c r="H13">
-        <v>18918.637999999999</v>
+        <v>12040.125</v>
       </c>
       <c r="I13">
-        <v>13335.791999999999</v>
+        <v>5393.7690000000002</v>
       </c>
       <c r="J13">
-        <v>1396.606</v>
+        <v>1722.7239999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14870.635</v>
+        <v>6256.1019999999999</v>
       </c>
       <c r="O13">
-        <v>16598.893</v>
+        <v>8034.808</v>
       </c>
       <c r="P13">
-        <v>1396.606</v>
+        <v>1784.154</v>
       </c>
       <c r="Q13">
-        <v>-336.57900000000001</v>
+        <v>575.21299999999997</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>12000</v>
+        <v>13600</v>
       </c>
       <c r="T13">
-        <v>2319.7449999999999</v>
+        <v>4005.317</v>
       </c>
       <c r="U13">
-        <v>1231.0060000000001</v>
+        <v>800.03599999999994</v>
       </c>
       <c r="V13">
-        <v>-30.939</v>
+        <v>1147.2190000000001</v>
       </c>
       <c r="W13">
-        <v>-48.710999999999999</v>
+        <v>-2.798</v>
       </c>
       <c r="X13">
-        <v>-240.346</v>
+        <v>-514.44799999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,81 +1844,81 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>51.023000000000003</v>
+        <v>119.53</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>41.384999999999998</v>
+        <v>108.474</v>
       </c>
       <c r="D14">
-        <v>29176.362000000001</v>
+        <v>13342.171</v>
       </c>
       <c r="E14">
-        <v>6214.1930000000002</v>
+        <v>2623.384</v>
       </c>
       <c r="F14">
-        <v>667.202</v>
+        <v>525.04999999999995</v>
       </c>
       <c r="G14">
-        <v>15228.344999999999</v>
+        <v>8596.3610000000008</v>
       </c>
       <c r="H14">
-        <v>19796.095000000001</v>
+        <v>11809.977999999999</v>
       </c>
       <c r="I14">
-        <v>13858.659</v>
+        <v>5024.8010000000004</v>
       </c>
       <c r="J14">
-        <v>1396.7760000000001</v>
+        <v>1703.403</v>
       </c>
       <c r="K14">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-99.5</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N14">
-        <v>15828.897999999999</v>
+        <v>5923.4539999999997</v>
       </c>
       <c r="O14">
-        <v>17548.293000000001</v>
+        <v>7689.1139999999996</v>
       </c>
       <c r="P14">
-        <v>1819.7760000000001</v>
+        <v>1769.7950000000001</v>
       </c>
       <c r="Q14">
-        <v>-883.54100000000005</v>
+        <v>-516.81100000000004</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2247.8020000000001</v>
+        <v>4120.8639999999996</v>
       </c>
       <c r="U14">
-        <v>347.46499999999997</v>
+        <v>283.22500000000002</v>
       </c>
       <c r="V14">
-        <v>-1003.643</v>
+        <v>-454.39800000000002</v>
       </c>
       <c r="W14">
-        <v>-54.366999999999997</v>
+        <v>-2.802</v>
       </c>
       <c r="X14">
-        <v>188.30500000000001</v>
+        <v>-10.773999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>41.384999999999998</v>
+        <v>108.474</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>180.077</v>
+        <v>142.15199999999999</v>
       </c>
       <c r="D15">
-        <v>28455.902999999998</v>
+        <v>13347.976000000001</v>
       </c>
       <c r="E15">
-        <v>6506.4120000000003</v>
+        <v>2848.634</v>
       </c>
       <c r="F15">
-        <v>728.74400000000003</v>
+        <v>578.61699999999996</v>
       </c>
       <c r="G15">
-        <v>15760.027</v>
+        <v>9148.24</v>
       </c>
       <c r="H15">
-        <v>20361.246999999999</v>
+        <v>12427.058000000001</v>
       </c>
       <c r="I15">
-        <v>14909.626</v>
+        <v>5499.6710000000003</v>
       </c>
       <c r="J15">
-        <v>1396.9480000000001</v>
+        <v>1398.548</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,37 +1971,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16499.931</v>
+        <v>6701.1329999999998</v>
       </c>
       <c r="O15">
-        <v>18215.732</v>
+        <v>8164.1030000000001</v>
       </c>
       <c r="P15">
-        <v>1396.9480000000001</v>
+        <v>1754.674</v>
       </c>
       <c r="Q15">
-        <v>349.26499999999999</v>
+        <v>380.53899999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2145.5149999999999</v>
+        <v>4262.9549999999999</v>
       </c>
       <c r="U15">
-        <v>696.73</v>
+        <v>663.76400000000001</v>
       </c>
       <c r="V15">
-        <v>1116.296</v>
+        <v>476.416</v>
       </c>
       <c r="W15">
-        <v>-54.03</v>
+        <v>-2.8050000000000002</v>
       </c>
       <c r="X15">
-        <v>-707.09900000000005</v>
+        <v>-16.471</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>180.077</v>
+        <v>142.15199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-12.78</v>
+        <v>125.77500000000001</v>
       </c>
       <c r="D16">
-        <v>30348.153999999999</v>
+        <v>13056.413</v>
       </c>
       <c r="E16">
-        <v>6133.2280000000001</v>
+        <v>2391.5140000000001</v>
       </c>
       <c r="F16">
-        <v>689.48</v>
+        <v>534.06299999999999</v>
       </c>
       <c r="G16">
-        <v>15891.386</v>
+        <v>8909.0939999999991</v>
       </c>
       <c r="H16">
-        <v>20630.606</v>
+        <v>12242.550999999999</v>
       </c>
       <c r="I16">
-        <v>14809.789000000001</v>
+        <v>5458.9160000000002</v>
       </c>
       <c r="J16">
-        <v>1995.482</v>
+        <v>1379.722</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16339.359</v>
+        <v>6407.5739999999996</v>
       </c>
       <c r="O16">
-        <v>18644.251</v>
+        <v>7849.1130000000003</v>
       </c>
       <c r="P16">
-        <v>1995.482</v>
+        <v>1456.0719999999999</v>
       </c>
       <c r="Q16">
-        <v>565.13400000000001</v>
+        <v>239.40700000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1986.355</v>
+        <v>4393.4380000000001</v>
       </c>
       <c r="U16">
-        <v>1261.864</v>
+        <v>903.17100000000005</v>
       </c>
       <c r="V16">
-        <v>519.84199999999998</v>
+        <v>639.35400000000004</v>
       </c>
       <c r="W16">
-        <v>-53.161000000000001</v>
+        <v>-2.8090000000000002</v>
       </c>
       <c r="X16">
-        <v>236.358</v>
+        <v>-319.101</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-117.794</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-12.78</v>
+        <v>125.77500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>67.802000000000007</v>
+        <v>91.989000000000004</v>
       </c>
       <c r="D17">
-        <v>31588.707999999999</v>
+        <v>13374.231</v>
       </c>
       <c r="E17">
-        <v>6312.8829999999998</v>
+        <v>2260.973</v>
       </c>
       <c r="F17">
-        <v>872.50400000000002</v>
+        <v>490.7</v>
       </c>
       <c r="G17">
-        <v>16800.205000000002</v>
+        <v>8295.3889999999992</v>
       </c>
       <c r="H17">
-        <v>21532.183000000001</v>
+        <v>11654.003000000001</v>
       </c>
       <c r="I17">
-        <v>15592.834000000001</v>
+        <v>4947.0370000000003</v>
       </c>
       <c r="J17">
-        <v>1995.6320000000001</v>
+        <v>1157.1110000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17250.16</v>
+        <v>6103.9080000000004</v>
       </c>
       <c r="O17">
-        <v>19575.284</v>
+        <v>7314.9579999999996</v>
       </c>
       <c r="P17">
-        <v>1995.6320000000001</v>
+        <v>1438.471</v>
       </c>
       <c r="Q17">
-        <v>546.649</v>
+        <v>-31.827999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="T17">
-        <v>1956.8989999999999</v>
+        <v>4339.0450000000001</v>
       </c>
       <c r="U17">
-        <v>1808.5129999999999</v>
+        <v>871.34299999999996</v>
       </c>
       <c r="V17">
-        <v>830.65800000000002</v>
+        <v>163.709</v>
       </c>
       <c r="W17">
-        <v>-52.911000000000001</v>
+        <v>-2.7810000000000001</v>
       </c>
       <c r="X17">
-        <v>-219.05500000000001</v>
+        <v>-165.20599999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>67.802000000000007</v>
+        <v>91.989000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-199.947</v>
+        <v>50.945999999999998</v>
       </c>
       <c r="D18">
-        <v>33588.601999999999</v>
+        <v>13636.835999999999</v>
       </c>
       <c r="E18">
-        <v>7144.0309999999999</v>
+        <v>2210.4740000000002</v>
       </c>
       <c r="F18">
-        <v>752.29899999999998</v>
+        <v>435.767</v>
       </c>
       <c r="G18">
-        <v>20144.71</v>
+        <v>7947.4219999999996</v>
       </c>
       <c r="H18">
-        <v>24904.916000000001</v>
+        <v>11310.27</v>
       </c>
       <c r="I18">
-        <v>19031.657999999999</v>
+        <v>5017.5609999999997</v>
       </c>
       <c r="J18">
-        <v>1995.885</v>
+        <v>1123.9659999999999</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,40 +2217,40 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="N18">
-        <v>20805.032999999999</v>
+        <v>5915.7250000000004</v>
       </c>
       <c r="O18">
-        <v>23136.57</v>
+        <v>7097.8459999999995</v>
       </c>
       <c r="P18">
-        <v>1995.885</v>
+        <v>1225.3610000000001</v>
       </c>
       <c r="Q18">
-        <v>490.24299999999999</v>
+        <v>-341.80399999999997</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1768.346</v>
+        <v>4212.424</v>
       </c>
       <c r="U18">
-        <v>2298.7559999999999</v>
+        <v>529.53899999999999</v>
       </c>
       <c r="V18">
-        <v>896.96400000000006</v>
+        <v>122.733</v>
       </c>
       <c r="W18">
-        <v>-64.025000000000006</v>
+        <v>-2.6280000000000001</v>
       </c>
       <c r="X18">
-        <v>-329.565</v>
+        <v>-408.88400000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,42 +2259,42 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>-199.947</v>
+        <v>50.945999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-513.39</v>
+        <v>99.421999999999997</v>
       </c>
       <c r="D19">
-        <v>32669.267</v>
+        <v>13190.166999999999</v>
       </c>
       <c r="E19">
-        <v>7560.1220000000003</v>
+        <v>2450.1239999999998</v>
       </c>
       <c r="F19">
-        <v>890.49300000000005</v>
+        <v>501.75</v>
       </c>
       <c r="G19">
-        <v>19556.823</v>
+        <v>8245.9009999999998</v>
       </c>
       <c r="H19">
-        <v>27005.53</v>
+        <v>11632.812</v>
       </c>
       <c r="I19">
-        <v>18395.153999999999</v>
+        <v>5655.5559999999996</v>
       </c>
       <c r="J19">
-        <v>3942.5169999999998</v>
+        <v>856.37099999999998</v>
       </c>
       <c r="K19">
-        <v>14.205</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20225.905999999999</v>
+        <v>6552.7269999999999</v>
       </c>
       <c r="O19">
-        <v>25089.275000000001</v>
+        <v>7470.8190000000004</v>
       </c>
       <c r="P19">
-        <v>4006.7220000000002</v>
+        <v>957.80399999999997</v>
       </c>
       <c r="Q19">
-        <v>38.222999999999999</v>
+        <v>324.14800000000002</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1916.2550000000001</v>
+        <v>4161.9930000000004</v>
       </c>
       <c r="U19">
-        <v>2336.9789999999998</v>
+        <v>1153.432</v>
       </c>
       <c r="V19">
-        <v>741.72</v>
+        <v>1070.2729999999999</v>
       </c>
       <c r="W19">
-        <v>-64.093999999999994</v>
+        <v>-2.7530000000000001</v>
       </c>
       <c r="X19">
-        <v>1908.8</v>
+        <v>-402.49099999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-299.745</v>
       </c>
       <c r="AA19">
-        <v>-513.39</v>
+        <v>99.421999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>214.16300000000001</v>
+        <v>94.775999999999996</v>
       </c>
       <c r="D20">
-        <v>34233.555999999997</v>
+        <v>13831.966</v>
       </c>
       <c r="E20">
-        <v>7596.558</v>
+        <v>2455.1239999999998</v>
       </c>
       <c r="F20">
-        <v>847.89700000000005</v>
+        <v>487.7</v>
       </c>
       <c r="G20">
-        <v>19902.034</v>
+        <v>8001.915</v>
       </c>
       <c r="H20">
-        <v>27333.504000000001</v>
+        <v>11406.960999999999</v>
       </c>
       <c r="I20">
-        <v>19348.993999999999</v>
+        <v>5467.4170000000004</v>
       </c>
       <c r="J20">
-        <v>3742.7809999999999</v>
+        <v>856.06799999999998</v>
       </c>
       <c r="K20">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21117.291000000001</v>
+        <v>6270.335</v>
       </c>
       <c r="O20">
-        <v>25757.88</v>
+        <v>7222.5959999999995</v>
       </c>
       <c r="P20">
-        <v>3750.1509999999998</v>
+        <v>857.53200000000004</v>
       </c>
       <c r="Q20">
-        <v>218.20400000000001</v>
+        <v>-169.11600000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1575.624</v>
+        <v>4184.3649999999998</v>
       </c>
       <c r="U20">
-        <v>2555.183</v>
+        <v>993.73099999999999</v>
       </c>
       <c r="V20">
-        <v>1121.5809999999999</v>
+        <v>57.543999999999997</v>
       </c>
       <c r="W20">
-        <v>-63.935000000000002</v>
+        <v>-2.6110000000000002</v>
       </c>
       <c r="X20">
-        <v>-848.19100000000003</v>
+        <v>-175.506</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-9.4149999999999991</v>
       </c>
       <c r="AA20">
-        <v>214.16300000000001</v>
+        <v>94.777000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>361.00900000000001</v>
+        <v>19.501000000000001</v>
       </c>
       <c r="D21">
-        <v>35470.377999999997</v>
+        <v>13918.352999999999</v>
       </c>
       <c r="E21">
-        <v>8222.9509999999991</v>
+        <v>2640.6460000000002</v>
       </c>
       <c r="F21">
-        <v>973.13099999999997</v>
+        <v>514.87400000000002</v>
       </c>
       <c r="G21">
-        <v>20334.488000000001</v>
+        <v>7987.692</v>
       </c>
       <c r="H21">
-        <v>27962.982</v>
+        <v>11381.174000000001</v>
       </c>
       <c r="I21">
-        <v>20886.438999999998</v>
+        <v>5292.2529999999997</v>
       </c>
       <c r="J21">
-        <v>3739.2249999999999</v>
+        <v>951.47900000000004</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21578.226999999999</v>
+        <v>6052.0959999999995</v>
       </c>
       <c r="O21">
-        <v>27346.596000000001</v>
+        <v>7100.817</v>
       </c>
       <c r="P21">
-        <v>3739.2249999999999</v>
+        <v>952.71100000000001</v>
       </c>
       <c r="Q21">
-        <v>-387.74099999999999</v>
+        <v>281.98200000000003</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>16500</v>
+        <v>12300</v>
       </c>
       <c r="T21">
-        <v>616.38599999999997</v>
+        <v>4280.357</v>
       </c>
       <c r="U21">
-        <v>2167.442</v>
+        <v>966.553</v>
       </c>
       <c r="V21">
-        <v>1161.963</v>
+        <v>276.08800000000002</v>
       </c>
       <c r="W21">
-        <v>-61.865000000000002</v>
+        <v>-2.6059999999999999</v>
       </c>
       <c r="X21">
-        <v>-1363.1780000000001</v>
+        <v>56.887999999999998</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-86.213999999999999</v>
+        <v>-39.97</v>
       </c>
       <c r="AA21">
-        <v>361.00900000000001</v>
+        <v>19.501000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>329.63900000000001</v>
+        <v>97.266999999999996</v>
       </c>
       <c r="D22">
-        <v>36709.046000000002</v>
+        <v>14653.147000000001</v>
       </c>
       <c r="E22">
-        <v>8380.652</v>
+        <v>2663.779</v>
       </c>
       <c r="F22">
-        <v>952.08600000000001</v>
+        <v>510.37799999999999</v>
       </c>
       <c r="G22">
-        <v>20361.674999999999</v>
+        <v>9166.4599999999991</v>
       </c>
       <c r="H22">
-        <v>30755.802</v>
+        <v>12575.878000000001</v>
       </c>
       <c r="I22">
-        <v>22536.323</v>
+        <v>6307.0649999999996</v>
       </c>
       <c r="J22">
-        <v>4393.317</v>
+        <v>1051.433</v>
       </c>
       <c r="K22">
-        <v>8.4120000000000008</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-1746.7660000000001</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>24024.341</v>
+        <v>7106.107</v>
       </c>
       <c r="O22">
-        <v>29455.782999999999</v>
+        <v>8256.1650000000009</v>
       </c>
       <c r="P22">
-        <v>4501.7290000000003</v>
+        <v>1052.6759999999999</v>
       </c>
       <c r="Q22">
-        <v>-1189.3520000000001</v>
+        <v>-170.08699999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1300.019</v>
+        <v>4319.7129999999997</v>
       </c>
       <c r="U22">
-        <v>978.09</v>
+        <v>1506.088</v>
       </c>
       <c r="V22">
-        <v>751.61400000000003</v>
+        <v>230.50700000000001</v>
       </c>
       <c r="W22">
-        <v>-71.198999999999998</v>
+        <v>-5.21</v>
       </c>
       <c r="X22">
-        <v>831.52099999999996</v>
+        <v>38.918999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>47.692999999999998</v>
+        <v>-360.49200000000002</v>
       </c>
       <c r="AA22">
-        <v>329.63900000000001</v>
+        <v>97.266999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>603.45000000000005</v>
+        <v>129.001</v>
       </c>
       <c r="D23">
-        <v>35698.357000000004</v>
+        <v>15220.679</v>
       </c>
       <c r="E23">
-        <v>8766.9940000000006</v>
+        <v>2990.279</v>
       </c>
       <c r="F23">
-        <v>1075.3240000000001</v>
+        <v>551.38400000000001</v>
       </c>
       <c r="G23">
-        <v>22070.067999999999</v>
+        <v>9205.1129999999994</v>
       </c>
       <c r="H23">
-        <v>32495.355</v>
+        <v>12781.567999999999</v>
       </c>
       <c r="I23">
-        <v>22986.171999999999</v>
+        <v>6319.1180000000004</v>
       </c>
       <c r="J23">
-        <v>4368.5860000000002</v>
+        <v>1077.5329999999999</v>
       </c>
       <c r="K23">
-        <v>19.553000000000001</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23770.91</v>
+        <v>7132.4530000000004</v>
       </c>
       <c r="O23">
-        <v>30304.192999999999</v>
+        <v>8314.9760000000006</v>
       </c>
       <c r="P23">
-        <v>4488.1390000000001</v>
+        <v>1080.576</v>
       </c>
       <c r="Q23">
-        <v>1547.1969999999999</v>
+        <v>174.08699999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2191.1619999999998</v>
+        <v>4466.5919999999996</v>
       </c>
       <c r="U23">
-        <v>2525.2869999999998</v>
+        <v>1051.7249999999999</v>
       </c>
       <c r="V23">
-        <v>880.40599999999995</v>
+        <v>472.13099999999997</v>
       </c>
       <c r="W23">
-        <v>-70.63</v>
+        <v>-5.2539999999999996</v>
       </c>
       <c r="X23">
-        <v>768.85699999999997</v>
+        <v>39.082000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-147.91300000000001</v>
       </c>
       <c r="AA23">
-        <v>603.45000000000005</v>
+        <v>129.001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>349.15499999999997</v>
+        <v>119.468</v>
       </c>
       <c r="D24">
-        <v>36881.68</v>
+        <v>15686.315000000001</v>
       </c>
       <c r="E24">
-        <v>8984.5329999999994</v>
+        <v>3146.6060000000002</v>
       </c>
       <c r="F24">
-        <v>986.90300000000002</v>
+        <v>552.62199999999996</v>
       </c>
       <c r="G24">
-        <v>21457.255000000001</v>
+        <v>9304.5750000000007</v>
       </c>
       <c r="H24">
-        <v>31914.242999999999</v>
+        <v>12867.041999999999</v>
       </c>
       <c r="I24">
-        <v>22692.063999999998</v>
+        <v>6529.9089999999997</v>
       </c>
       <c r="J24">
-        <v>3794.0360000000001</v>
+        <v>1082.212</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23997.255000000001</v>
+        <v>7439.9939999999997</v>
       </c>
       <c r="O24">
-        <v>30034.925999999999</v>
+        <v>8636.7620000000006</v>
       </c>
       <c r="P24">
-        <v>4407.2160000000003</v>
+        <v>1084.7570000000001</v>
       </c>
       <c r="Q24">
-        <v>-660.08500000000004</v>
+        <v>664.49199999999996</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1879.317</v>
+        <v>4230.28</v>
       </c>
       <c r="U24">
-        <v>1865.202</v>
+        <v>1658.34</v>
       </c>
       <c r="V24">
-        <v>191.95599999999999</v>
+        <v>182.03700000000001</v>
       </c>
       <c r="W24">
-        <v>-73.241</v>
+        <v>-5.1059999999999999</v>
       </c>
       <c r="X24">
-        <v>-705.53300000000002</v>
+        <v>-363.65100000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-6.0339999999999998</v>
+        <v>834.24</v>
       </c>
       <c r="AA24">
-        <v>349.15499999999997</v>
+        <v>119.468</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>145.685</v>
+        <v>121.97799999999999</v>
       </c>
       <c r="D25">
-        <v>37560.603000000003</v>
+        <v>15643.004000000001</v>
       </c>
       <c r="E25">
-        <v>9175.8760000000002</v>
+        <v>3427.1390000000001</v>
       </c>
       <c r="F25">
-        <v>1124.5350000000001</v>
+        <v>576.59799999999996</v>
       </c>
       <c r="G25">
-        <v>22851.847000000002</v>
+        <v>9210.4069999999992</v>
       </c>
       <c r="H25">
-        <v>33637.500999999997</v>
+        <v>12783.92</v>
       </c>
       <c r="I25">
-        <v>23926.32</v>
+        <v>6499.2640000000001</v>
       </c>
       <c r="J25">
-        <v>3852.4839999999999</v>
+        <v>1093.931</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25280.368999999999</v>
+        <v>7459.1880000000001</v>
       </c>
       <c r="O25">
-        <v>31508.097000000002</v>
+        <v>8642.7630000000008</v>
       </c>
       <c r="P25">
-        <v>4462.6940000000004</v>
+        <v>1095.491</v>
       </c>
       <c r="Q25">
-        <v>876.63</v>
+        <v>-373.77699999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>18000</v>
+        <v>13200</v>
       </c>
       <c r="T25">
-        <v>2129.404</v>
+        <v>4141.1570000000002</v>
       </c>
       <c r="U25">
-        <v>2741.8319999999999</v>
+        <v>1261.268</v>
       </c>
       <c r="V25">
-        <v>1354.521</v>
+        <v>-77.41</v>
       </c>
       <c r="W25">
-        <v>-73.406999999999996</v>
+        <v>-5.0250000000000004</v>
       </c>
       <c r="X25">
-        <v>-329.77300000000002</v>
+        <v>-184.19800000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-0.94699999999999995</v>
+        <v>-44.545000000000002</v>
       </c>
       <c r="AA25">
-        <v>145.685</v>
+        <v>121.97799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>247.24600000000001</v>
+        <v>122.187</v>
       </c>
       <c r="D26">
-        <v>38169.264999999999</v>
+        <v>16725.393</v>
       </c>
       <c r="E26">
-        <v>9696.2000000000007</v>
+        <v>3422.8330000000001</v>
       </c>
       <c r="F26">
-        <v>1037.68</v>
+        <v>592.75300000000004</v>
       </c>
       <c r="G26">
-        <v>23078.756000000001</v>
+        <v>9331.8809999999994</v>
       </c>
       <c r="H26">
-        <v>33919.271999999997</v>
+        <v>13042.918</v>
       </c>
       <c r="I26">
-        <v>24172.341</v>
+        <v>6766.0519999999997</v>
       </c>
       <c r="J26">
-        <v>3871.5839999999998</v>
+        <v>1210.9380000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-117.491</v>
+        <v>-203.78700000000001</v>
       </c>
       <c r="N26">
-        <v>25542.758000000002</v>
+        <v>7787.3220000000001</v>
       </c>
       <c r="O26">
-        <v>31802.715</v>
+        <v>9103.6470000000008</v>
       </c>
       <c r="P26">
-        <v>4479.5640000000003</v>
+        <v>1212.0930000000001</v>
       </c>
       <c r="Q26">
-        <v>-950.69799999999998</v>
+        <v>-462.87900000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2116.5569999999998</v>
+        <v>3939.2710000000002</v>
       </c>
       <c r="U26">
-        <v>1791.134</v>
+        <v>798.38900000000001</v>
       </c>
       <c r="V26">
-        <v>-430.35500000000002</v>
+        <v>287.87099999999998</v>
       </c>
       <c r="W26">
-        <v>-80.168999999999997</v>
+        <v>-9.6590000000000007</v>
       </c>
       <c r="X26">
-        <v>-363.48599999999999</v>
+        <v>-203.239</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-19.957999999999998</v>
+        <v>-377.81299999999999</v>
       </c>
       <c r="AA26">
-        <v>247.24600000000001</v>
+        <v>122.187</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>411.47300000000001</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>37147.402000000002</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>9583.52</v>
+        <v>3633.7130000000002</v>
       </c>
       <c r="F27">
-        <v>1256.4269999999999</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>23493.920999999998</v>
+        <v>9874.81</v>
       </c>
       <c r="H27">
-        <v>34397.012999999999</v>
+        <v>13586.772000000001</v>
       </c>
       <c r="I27">
-        <v>24276.019</v>
+        <v>7301.9939999999997</v>
       </c>
       <c r="J27">
-        <v>3839.598</v>
+        <v>1199.1379999999999</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>25531.425999999999</v>
+        <v>8190.9430000000002</v>
       </c>
       <c r="O27">
-        <v>31867.721000000001</v>
+        <v>9492.0879999999997</v>
       </c>
       <c r="P27">
-        <v>4455.4449999999997</v>
+        <v>1199.971</v>
       </c>
       <c r="Q27">
-        <v>613.29899999999998</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2529.2919999999999</v>
+        <v>4094.6840000000002</v>
       </c>
       <c r="U27">
-        <v>2404.433</v>
+        <v>778.38199999999995</v>
       </c>
       <c r="V27">
-        <v>798.73900000000003</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>-79.924000000000007</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-72.822999999999993</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>7.4509999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>411.47300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>50.351999999999997</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>38707.144</v>
+        <v>16343.976000000001</v>
       </c>
       <c r="E28">
-        <v>10553.258</v>
+        <v>3549.0259999999998</v>
       </c>
       <c r="F28">
-        <v>1079.875</v>
+        <v>538.88400000000001</v>
       </c>
       <c r="G28">
-        <v>23677.223999999998</v>
+        <v>9150.1810000000005</v>
       </c>
       <c r="H28">
-        <v>34654.01</v>
+        <v>12891.22</v>
       </c>
       <c r="I28">
-        <v>24804.544000000002</v>
+        <v>6887.3239999999996</v>
       </c>
       <c r="J28">
-        <v>3781.7930000000001</v>
+        <v>1212.9349999999999</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>25751.076000000001</v>
+        <v>7840.8940000000002</v>
       </c>
       <c r="O28">
-        <v>32100.495999999999</v>
+        <v>9155.3809999999994</v>
       </c>
       <c r="P28">
-        <v>3785.9119999999998</v>
+        <v>1213.556</v>
       </c>
       <c r="Q28">
-        <v>-1092.9659999999999</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2553.5140000000001</v>
+        <v>3735.8389999999999</v>
       </c>
       <c r="U28">
-        <v>1311.4670000000001</v>
+        <v>487.00900000000001</v>
       </c>
       <c r="V28">
-        <v>-244.7</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-80.075000000000003</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-711.17399999999998</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>33.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>50.351999999999997</v>
+        <v>129.90799999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-344.58699999999999</v>
+        <v>87.575999999999993</v>
       </c>
       <c r="D29">
-        <v>39120.014999999999</v>
+        <v>16292.478999999999</v>
       </c>
       <c r="E29">
-        <v>10303.324000000001</v>
+        <v>3415.7719999999999</v>
       </c>
       <c r="F29">
-        <v>1172.02</v>
+        <v>501.46800000000002</v>
       </c>
       <c r="G29">
-        <v>24303.298999999999</v>
+        <v>8937.8520000000008</v>
       </c>
       <c r="H29">
-        <v>35316.47</v>
+        <v>12310.064</v>
       </c>
       <c r="I29">
-        <v>25404.042000000001</v>
+        <v>6964.5940000000001</v>
       </c>
       <c r="J29">
-        <v>3781.569</v>
+        <v>1227.077</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>26818.165000000001</v>
+        <v>7864.11</v>
       </c>
       <c r="O29">
-        <v>33252.008999999998</v>
+        <v>9210.3439999999991</v>
       </c>
       <c r="P29">
-        <v>3793.69</v>
+        <v>1227.5530000000001</v>
       </c>
       <c r="Q29">
-        <v>1123.6479999999999</v>
+        <v>153.19499999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>19000</v>
+        <v>10200</v>
       </c>
       <c r="T29">
-        <v>2064.4609999999998</v>
+        <v>3099.72</v>
       </c>
       <c r="U29">
-        <v>2435.1149999999998</v>
+        <v>640.20399999999995</v>
       </c>
       <c r="V29">
-        <v>1380.454</v>
+        <v>127.577</v>
       </c>
       <c r="W29">
-        <v>-80.102000000000004</v>
+        <v>-8.734</v>
       </c>
       <c r="X29">
-        <v>-165.33099999999999</v>
+        <v>-428.185</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-6.577</v>
+        <v>486.78100000000001</v>
       </c>
       <c r="AA29">
-        <v>-344.58699999999999</v>
+        <v>87.575999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>861.85299999999995</v>
+        <v>109.82</v>
       </c>
       <c r="D30">
-        <v>40466.332000000002</v>
+        <v>17279.383000000002</v>
       </c>
       <c r="E30">
-        <v>10127.782999999999</v>
+        <v>3461.5619999999999</v>
       </c>
       <c r="F30">
-        <v>1112.652</v>
+        <v>472.63099999999997</v>
       </c>
       <c r="G30">
-        <v>25296.432000000001</v>
+        <v>8838.8359999999993</v>
       </c>
       <c r="H30">
-        <v>36361.51</v>
+        <v>12611.757</v>
       </c>
       <c r="I30">
-        <v>25346.694</v>
+        <v>7414.8540000000003</v>
       </c>
       <c r="J30">
-        <v>4617.259</v>
+        <v>1250.2840000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-2969.4140000000002</v>
+        <v>-1411.1479999999999</v>
       </c>
       <c r="N30">
-        <v>26740.291000000001</v>
+        <v>8311.5110000000004</v>
       </c>
       <c r="O30">
-        <v>33486.928</v>
+        <v>9726.5750000000007</v>
       </c>
       <c r="P30">
-        <v>4637.32</v>
+        <v>1251.771</v>
       </c>
       <c r="Q30">
-        <v>602.63199999999995</v>
+        <v>-116.065</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>2874.5819999999999</v>
+        <v>2885.1819999999998</v>
       </c>
       <c r="U30">
-        <v>3037.7469999999998</v>
+        <v>524.13900000000001</v>
       </c>
       <c r="V30">
-        <v>10.326000000000001</v>
+        <v>-101.03</v>
       </c>
       <c r="W30">
-        <v>-83.555000000000007</v>
+        <v>-12.497999999999999</v>
       </c>
       <c r="X30">
-        <v>734.62900000000002</v>
+        <v>-293.03699999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>467.41899999999998</v>
       </c>
       <c r="AA30">
-        <v>861.85299999999995</v>
+        <v>109.82</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>287.45499999999998</v>
+        <v>133.852</v>
       </c>
       <c r="D31">
-        <v>41033.858</v>
+        <v>17755.838</v>
       </c>
       <c r="E31">
-        <v>11265.013999999999</v>
+        <v>3648.0940000000001</v>
       </c>
       <c r="F31">
-        <v>1255.345</v>
+        <v>534.08799999999997</v>
       </c>
       <c r="G31">
-        <v>26397.210999999999</v>
+        <v>8808.7559999999994</v>
       </c>
       <c r="H31">
-        <v>38395.732000000004</v>
+        <v>12572.976000000001</v>
       </c>
       <c r="I31">
-        <v>26403.594000000001</v>
+        <v>7396.6769999999997</v>
       </c>
       <c r="J31">
-        <v>4640.0209999999997</v>
+        <v>1223.768</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,37 +3299,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>28094.403999999999</v>
+        <v>8234.9650000000001</v>
       </c>
       <c r="O31">
-        <v>35032.135999999999</v>
+        <v>9625.1769999999997</v>
       </c>
       <c r="P31">
-        <v>4892.915</v>
+        <v>1225.384</v>
       </c>
       <c r="Q31">
-        <v>-946.38800000000003</v>
+        <v>67.221000000000004</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3363.596</v>
+        <v>2947.799</v>
       </c>
       <c r="U31">
-        <v>2091.3589999999999</v>
+        <v>591.36</v>
       </c>
       <c r="V31">
-        <v>-87.567999999999998</v>
+        <v>193.31299999999999</v>
       </c>
       <c r="W31">
-        <v>-83.977999999999994</v>
+        <v>-12.161</v>
       </c>
       <c r="X31">
-        <v>-65.721000000000004</v>
+        <v>-98.424999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>287.45499999999998</v>
+        <v>133.852</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>275.80900000000003</v>
+        <v>-108.02</v>
       </c>
       <c r="D32">
-        <v>43142.309000000001</v>
+        <v>17996.666000000001</v>
       </c>
       <c r="E32">
-        <v>11764.614</v>
+        <v>3667.0830000000001</v>
       </c>
       <c r="F32">
-        <v>1175.741</v>
+        <v>498.04500000000002</v>
       </c>
       <c r="G32">
-        <v>26404.401000000002</v>
+        <v>8447.7909999999993</v>
       </c>
       <c r="H32">
-        <v>38309.591999999997</v>
+        <v>11988.34</v>
       </c>
       <c r="I32">
-        <v>26449.542000000001</v>
+        <v>7039.0739999999996</v>
       </c>
       <c r="J32">
-        <v>4569.7619999999997</v>
+        <v>1231.1990000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>28099.670999999998</v>
+        <v>7871.5020000000004</v>
       </c>
       <c r="O32">
-        <v>35033.660000000003</v>
+        <v>9264.375</v>
       </c>
       <c r="P32">
-        <v>4765.3540000000003</v>
+        <v>1233.0709999999999</v>
       </c>
       <c r="Q32">
-        <v>297.56900000000002</v>
+        <v>-8.2739999999999991</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3275.9319999999998</v>
+        <v>2723.9650000000001</v>
       </c>
       <c r="U32">
-        <v>2388.9279999999999</v>
+        <v>583.08600000000001</v>
       </c>
       <c r="V32">
-        <v>823.28499999999997</v>
+        <v>130.672</v>
       </c>
       <c r="W32">
-        <v>-83.430999999999997</v>
+        <v>-12.089</v>
       </c>
       <c r="X32">
-        <v>-435.26600000000002</v>
+        <v>-114.509</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>275.80900000000003</v>
+        <v>-108.02</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>233.28800000000001</v>
+        <v>114.907</v>
       </c>
       <c r="D33">
-        <v>43297.135999999999</v>
+        <v>17157.846000000001</v>
       </c>
       <c r="E33">
-        <v>11314.226000000001</v>
+        <v>3480.2669999999998</v>
       </c>
       <c r="F33">
-        <v>1032.6410000000001</v>
+        <v>525.54700000000003</v>
       </c>
       <c r="G33">
-        <v>25894.371999999999</v>
+        <v>8669.7610000000004</v>
       </c>
       <c r="H33">
-        <v>37669.838000000003</v>
+        <v>12217.786</v>
       </c>
       <c r="I33">
-        <v>26836.873</v>
+        <v>7326.58</v>
       </c>
       <c r="J33">
-        <v>4510.8280000000004</v>
+        <v>1187.412</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>27869.687000000002</v>
+        <v>8167.5889999999999</v>
       </c>
       <c r="O33">
-        <v>34619.877</v>
+        <v>9507.741</v>
       </c>
       <c r="P33">
-        <v>4662.4849999999997</v>
+        <v>1189.1310000000001</v>
       </c>
       <c r="Q33">
-        <v>103.58799999999999</v>
+        <v>295.02800000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>20000</v>
+        <v>9700</v>
       </c>
       <c r="T33">
-        <v>3049.9609999999998</v>
+        <v>2710.0450000000001</v>
       </c>
       <c r="U33">
-        <v>2492.5160000000001</v>
+        <v>878.11400000000003</v>
       </c>
       <c r="V33">
-        <v>665.34500000000003</v>
+        <v>514.11400000000003</v>
       </c>
       <c r="W33">
-        <v>-82.076999999999998</v>
+        <v>-11.926</v>
       </c>
       <c r="X33">
-        <v>-476.51499999999999</v>
+        <v>-156.60900000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>233.28800000000001</v>
+        <v>114.907</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>393.65199999999999</v>
+        <v>111.056</v>
       </c>
       <c r="D34">
-        <v>45392.451999999997</v>
+        <v>17338.377</v>
       </c>
       <c r="E34">
-        <v>11979.382</v>
+        <v>3537.7040000000002</v>
       </c>
       <c r="F34">
-        <v>1210.3009999999999</v>
+        <v>489.84800000000001</v>
       </c>
       <c r="G34">
-        <v>27476.206999999999</v>
+        <v>9007.0689999999995</v>
       </c>
       <c r="H34">
-        <v>39267.822999999997</v>
+        <v>12561.146000000001</v>
       </c>
       <c r="I34">
-        <v>28336.293000000001</v>
+        <v>7655.8689999999997</v>
       </c>
       <c r="J34">
-        <v>4516.5140000000001</v>
+        <v>1185.3389999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3545,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-513.69100000000003</v>
+        <v>-311.68900000000002</v>
       </c>
       <c r="N34">
-        <v>29351.737000000001</v>
+        <v>8506.7970000000005</v>
       </c>
       <c r="O34">
-        <v>36103.089999999997</v>
+        <v>9845.3289999999997</v>
       </c>
       <c r="P34">
-        <v>4672.8590000000004</v>
+        <v>1186.6489999999999</v>
       </c>
       <c r="Q34">
-        <v>47.64</v>
+        <v>-407.197</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3164.7330000000002</v>
+        <v>2715.817</v>
       </c>
       <c r="U34">
-        <v>2540.1559999999999</v>
+        <v>470.91699999999997</v>
       </c>
       <c r="V34">
-        <v>478.96800000000002</v>
+        <v>-304.36599999999999</v>
       </c>
       <c r="W34">
-        <v>-85.534999999999997</v>
+        <v>-15.571</v>
       </c>
       <c r="X34">
-        <v>-303.70999999999998</v>
+        <v>-74.284999999999997</v>
       </c>
       <c r="Y34">
-        <v>6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>393.65199999999999</v>
+        <v>111.056</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>27.135000000000002</v>
+        <v>143.387</v>
       </c>
       <c r="D35">
-        <v>43319.601999999999</v>
+        <v>17311.651000000002</v>
       </c>
       <c r="E35">
-        <v>12222.271000000001</v>
+        <v>3734.2510000000002</v>
       </c>
       <c r="F35">
-        <v>1372.78</v>
+        <v>552.471</v>
       </c>
       <c r="G35">
-        <v>27622.183000000001</v>
+        <v>9005.3790000000008</v>
       </c>
       <c r="H35">
-        <v>38810.31</v>
+        <v>12549.716</v>
       </c>
       <c r="I35">
-        <v>28189.39</v>
+        <v>7651.4549999999999</v>
       </c>
       <c r="J35">
-        <v>4359.8500000000004</v>
+        <v>1159.3510000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>29211.899000000001</v>
+        <v>8478.1059999999998</v>
       </c>
       <c r="O35">
-        <v>35771.978999999999</v>
+        <v>9791.02</v>
       </c>
       <c r="P35">
-        <v>4642.8729999999996</v>
+        <v>1160.046</v>
       </c>
       <c r="Q35">
-        <v>335.59399999999999</v>
+        <v>184.41200000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3038.3310000000001</v>
+        <v>2758.6959999999999</v>
       </c>
       <c r="U35">
-        <v>2875.75</v>
+        <v>655.32899999999995</v>
       </c>
       <c r="V35">
-        <v>624.36400000000003</v>
+        <v>336.78399999999999</v>
       </c>
       <c r="W35">
-        <v>-84.893000000000001</v>
+        <v>-15.227</v>
       </c>
       <c r="X35">
-        <v>-205.161</v>
+        <v>-126.129</v>
       </c>
       <c r="Y35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>27.135000000000002</v>
+        <v>143.387</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>301.959</v>
+        <v>118.807</v>
       </c>
       <c r="D36">
-        <v>45239.264999999999</v>
+        <v>18393.899000000001</v>
       </c>
       <c r="E36">
-        <v>11989.03</v>
+        <v>3746.643</v>
       </c>
       <c r="F36">
-        <v>1227.759</v>
+        <v>519.22299999999996</v>
       </c>
       <c r="G36">
-        <v>27401.777999999998</v>
+        <v>9138.3799999999992</v>
       </c>
       <c r="H36">
-        <v>38478.538</v>
+        <v>12735.751</v>
       </c>
       <c r="I36">
-        <v>27807.402999999998</v>
+        <v>7700.5159999999996</v>
       </c>
       <c r="J36">
-        <v>4339.8890000000001</v>
+        <v>1190.2249999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>28788.870999999999</v>
+        <v>8586.9740000000002</v>
       </c>
       <c r="O36">
-        <v>35371.341</v>
+        <v>9951.4330000000009</v>
       </c>
       <c r="P36">
-        <v>4506.0659999999998</v>
+        <v>1190.9349999999999</v>
       </c>
       <c r="Q36">
-        <v>123.809</v>
+        <v>257.59500000000003</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3107.1970000000001</v>
+        <v>2784.3180000000002</v>
       </c>
       <c r="U36">
-        <v>2999.5590000000002</v>
+        <v>912.92399999999998</v>
       </c>
       <c r="V36">
-        <v>567.86900000000003</v>
+        <v>398.041</v>
       </c>
       <c r="W36">
-        <v>-84.635999999999996</v>
+        <v>-15.125999999999999</v>
       </c>
       <c r="X36">
-        <v>-358.25400000000002</v>
+        <v>-93.421999999999997</v>
       </c>
       <c r="Y36">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>301.959</v>
+        <v>118.807</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>132.619</v>
+        <v>130.14699999999999</v>
       </c>
       <c r="D37">
-        <v>45637.802000000003</v>
+        <v>18716.062999999998</v>
       </c>
       <c r="E37">
-        <v>12386.879000000001</v>
+        <v>3916.509</v>
       </c>
       <c r="F37">
-        <v>1181.5999999999999</v>
+        <v>536.73299999999995</v>
       </c>
       <c r="G37">
-        <v>28132.054</v>
+        <v>9953.7530000000006</v>
       </c>
       <c r="H37">
-        <v>39171.980000000003</v>
+        <v>13572.74</v>
       </c>
       <c r="I37">
-        <v>28385.074000000001</v>
+        <v>8517.1620000000003</v>
       </c>
       <c r="J37">
-        <v>4354.3980000000001</v>
+        <v>1176.933</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,37 +3797,37 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>29581.294000000002</v>
+        <v>9479.61</v>
       </c>
       <c r="O37">
-        <v>36178.773999999998</v>
+        <v>10856.271000000001</v>
       </c>
       <c r="P37">
-        <v>4493.41</v>
+        <v>1178.001</v>
       </c>
       <c r="Q37">
-        <v>374.63499999999999</v>
+        <v>96.444000000000003</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>21000</v>
+        <v>9100</v>
       </c>
       <c r="T37">
-        <v>2993.2060000000001</v>
+        <v>2716.4690000000001</v>
       </c>
       <c r="U37">
-        <v>3374.194</v>
+        <v>1009.3680000000001</v>
       </c>
       <c r="V37">
-        <v>672.822</v>
+        <v>353.30399999999997</v>
       </c>
       <c r="W37">
-        <v>-83.91</v>
+        <v>-16.771999999999998</v>
       </c>
       <c r="X37">
-        <v>-219.38800000000001</v>
+        <v>-210.32400000000001</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3716,39 +3836,39 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>132.619</v>
+        <v>130.14699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>187.64</v>
+        <v>151.30699999999999</v>
       </c>
       <c r="D38">
-        <v>47864.741999999998</v>
+        <v>19335.859</v>
       </c>
       <c r="E38">
-        <v>12568.816000000001</v>
+        <v>3540.9189999999999</v>
       </c>
       <c r="F38">
-        <v>1222.722</v>
+        <v>561.87</v>
       </c>
       <c r="G38">
-        <v>28954.815999999999</v>
+        <v>9916.1309999999994</v>
       </c>
       <c r="H38">
-        <v>40016.737999999998</v>
+        <v>13556.271000000001</v>
       </c>
       <c r="I38">
-        <v>29181.86</v>
+        <v>8225.5570000000007</v>
       </c>
       <c r="J38">
-        <v>3636.114</v>
+        <v>1375.2560000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-83.102999999999994</v>
+        <v>-491.70400000000001</v>
       </c>
       <c r="N38">
-        <v>30630.455999999998</v>
+        <v>9243.4480000000003</v>
       </c>
       <c r="O38">
-        <v>36947.656999999999</v>
+        <v>10815.41</v>
       </c>
       <c r="P38">
-        <v>4706.6620000000003</v>
+        <v>1375.8489999999999</v>
       </c>
       <c r="Q38">
-        <v>-141.59</v>
+        <v>-29.800999999999998</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3069.0810000000001</v>
+        <v>2740.8609999999999</v>
       </c>
       <c r="U38">
-        <v>3232.6039999999998</v>
+        <v>979.56700000000001</v>
       </c>
       <c r="V38">
-        <v>142.81</v>
+        <v>-41.689</v>
       </c>
       <c r="W38">
-        <v>-83.087999999999994</v>
+        <v>-23.149000000000001</v>
       </c>
       <c r="X38">
-        <v>-222.06100000000001</v>
+        <v>54.335000000000001</v>
       </c>
       <c r="Y38">
-        <v>440.12400000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>187.64</v>
+        <v>151.30699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>960.27700000000004</v>
+        <v>181.00800000000001</v>
       </c>
       <c r="D39">
-        <v>47417.639000000003</v>
+        <v>19300.627</v>
       </c>
       <c r="E39">
-        <v>14210.17</v>
+        <v>3948.4780000000001</v>
       </c>
       <c r="F39">
-        <v>1393.0419999999999</v>
+        <v>612.06799999999998</v>
       </c>
       <c r="G39">
-        <v>31180.65</v>
+        <v>10167.030000000001</v>
       </c>
       <c r="H39">
-        <v>42042.262000000002</v>
+        <v>13822.288</v>
       </c>
       <c r="I39">
-        <v>30719.987000000001</v>
+        <v>8434.9339999999993</v>
       </c>
       <c r="J39">
-        <v>3622.3870000000002</v>
+        <v>1358.5050000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>32111.79</v>
+        <v>9426.3979999999992</v>
       </c>
       <c r="O39">
-        <v>38337.148999999998</v>
+        <v>10990.366</v>
       </c>
       <c r="P39">
-        <v>4671.152</v>
+        <v>1359.008</v>
       </c>
       <c r="Q39">
-        <v>459.334</v>
+        <v>220.30500000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3705.1129999999998</v>
+        <v>2831.922</v>
       </c>
       <c r="U39">
-        <v>3691.9380000000001</v>
+        <v>1199.8720000000001</v>
       </c>
       <c r="V39">
-        <v>852.89700000000005</v>
+        <v>388.08199999999999</v>
       </c>
       <c r="W39">
-        <v>-87.453000000000003</v>
+        <v>-22.605</v>
       </c>
       <c r="X39">
-        <v>-288.10199999999998</v>
+        <v>-122.321</v>
       </c>
       <c r="Y39">
-        <v>428.06099999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-30.58</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>960.27700000000004</v>
+        <v>181.00800000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>289.43900000000002</v>
+        <v>163.20500000000001</v>
       </c>
       <c r="D40">
-        <v>45366.777000000002</v>
+        <v>19602.12</v>
       </c>
       <c r="E40">
-        <v>12548.398999999999</v>
+        <v>3887.8270000000002</v>
       </c>
       <c r="F40">
-        <v>1226.1479999999999</v>
+        <v>569.27</v>
       </c>
       <c r="G40">
-        <v>29918.572</v>
+        <v>10338.003000000001</v>
       </c>
       <c r="H40">
-        <v>40789.703000000001</v>
+        <v>14003.785</v>
       </c>
       <c r="I40">
-        <v>29145.149000000001</v>
+        <v>8452.1119999999992</v>
       </c>
       <c r="J40">
-        <v>3620.6410000000001</v>
+        <v>1359.681</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>30631.571</v>
+        <v>9486.6869999999999</v>
       </c>
       <c r="O40">
-        <v>36821.752</v>
+        <v>11072.593999999999</v>
       </c>
       <c r="P40">
-        <v>4661.8459999999995</v>
+        <v>1360.17</v>
       </c>
       <c r="Q40">
-        <v>-271.666</v>
+        <v>110.84399999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3967.951</v>
+        <v>2931.1909999999998</v>
       </c>
       <c r="U40">
-        <v>3420.2719999999999</v>
+        <v>1310.7159999999999</v>
       </c>
       <c r="V40">
-        <v>-87.899000000000001</v>
+        <v>212.99799999999999</v>
       </c>
       <c r="W40">
-        <v>-86.222999999999999</v>
+        <v>-22.552</v>
       </c>
       <c r="X40">
-        <v>-73.459999999999994</v>
+        <v>-57.898000000000003</v>
       </c>
       <c r="Y40">
-        <v>424.34800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-4.25</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>289.43900000000002</v>
+        <v>163.20500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-4846.0720000000001</v>
+        <v>141.22800000000001</v>
       </c>
       <c r="D41">
-        <v>49244.767999999996</v>
+        <v>19715.373</v>
       </c>
       <c r="E41">
-        <v>13846.300999999999</v>
+        <v>3827.4839999999999</v>
       </c>
       <c r="F41">
-        <v>1346.317</v>
+        <v>592.83399999999995</v>
       </c>
       <c r="G41">
-        <v>33055.701999999997</v>
+        <v>10748.35</v>
       </c>
       <c r="H41">
-        <v>44274.83</v>
+        <v>14434.843000000001</v>
       </c>
       <c r="I41">
-        <v>31705.055</v>
+        <v>8833.2849999999999</v>
       </c>
       <c r="J41">
-        <v>3618.261</v>
+        <v>1343.1579999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>33853.076999999997</v>
+        <v>9906.3439999999991</v>
       </c>
       <c r="O41">
-        <v>45114.466</v>
+        <v>11480.546</v>
       </c>
       <c r="P41">
-        <v>4597.6139999999996</v>
+        <v>1343.58</v>
       </c>
       <c r="Q41">
-        <v>1177.4739999999999</v>
+        <v>347.46600000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>21000</v>
+        <v>9100</v>
       </c>
       <c r="T41">
-        <v>-839.63599999999997</v>
+        <v>2954.297</v>
       </c>
       <c r="U41">
-        <v>4597.7460000000001</v>
+        <v>1658.182</v>
       </c>
       <c r="V41">
-        <v>1299.232</v>
+        <v>549.23299999999995</v>
       </c>
       <c r="W41">
-        <v>-86.813999999999993</v>
+        <v>-22.315999999999999</v>
       </c>
       <c r="X41">
-        <v>-19.994</v>
+        <v>-149.55500000000001</v>
       </c>
       <c r="Y41">
-        <v>385.50700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-21.25</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-4846.0720000000001</v>
+        <v>141.22800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>160.5</v>
+      </c>
+      <c r="D42">
+        <v>19888.609</v>
+      </c>
+      <c r="E42">
+        <v>3551.3150000000001</v>
+      </c>
+      <c r="F42">
+        <v>580.23199999999997</v>
+      </c>
+      <c r="G42">
+        <v>10428.173000000001</v>
+      </c>
+      <c r="H42">
+        <v>14132.319</v>
+      </c>
+      <c r="I42">
+        <v>8467.0040000000008</v>
+      </c>
+      <c r="J42">
+        <v>1287.4100000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-285.012</v>
+      </c>
+      <c r="N42">
+        <v>9640.9050000000007</v>
+      </c>
+      <c r="O42">
+        <v>11170.313</v>
+      </c>
+      <c r="P42">
+        <v>1402.789</v>
+      </c>
+      <c r="Q42">
+        <v>-257.28699999999998</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2962.0059999999999</v>
+      </c>
+      <c r="U42">
+        <v>1400.895</v>
+      </c>
+      <c r="V42">
+        <v>-99.2</v>
+      </c>
+      <c r="W42">
+        <v>-27.734999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-107.996</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>214.381</v>
+      </c>
+      <c r="D43">
+        <v>19760.257000000001</v>
+      </c>
+      <c r="E43">
+        <v>3802.24</v>
+      </c>
+      <c r="F43">
+        <v>687.33600000000001</v>
+      </c>
+      <c r="G43">
+        <v>10956.245999999999</v>
+      </c>
+      <c r="H43">
+        <v>14681.016</v>
+      </c>
+      <c r="I43">
+        <v>8909.4809999999998</v>
+      </c>
+      <c r="J43">
+        <v>1342.5809999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>9950.1720000000005</v>
+      </c>
+      <c r="O43">
+        <v>11547.986000000001</v>
+      </c>
+      <c r="P43">
+        <v>1342.8589999999999</v>
+      </c>
+      <c r="Q43">
+        <v>511.541</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3133.03</v>
+      </c>
+      <c r="U43">
+        <v>1912.4359999999999</v>
+      </c>
+      <c r="V43">
+        <v>676.404</v>
+      </c>
+      <c r="W43">
+        <v>-27.536000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-121.181</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>214.381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>184.41900000000001</v>
+      </c>
+      <c r="D44">
+        <v>20161.022000000001</v>
+      </c>
+      <c r="E44">
+        <v>3907.1120000000001</v>
+      </c>
+      <c r="F44">
+        <v>653.58100000000002</v>
+      </c>
+      <c r="G44">
+        <v>11121.305</v>
+      </c>
+      <c r="H44">
+        <v>14855.728999999999</v>
+      </c>
+      <c r="I44">
+        <v>8893.3320000000003</v>
+      </c>
+      <c r="J44">
+        <v>1361.8889999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>10007.785</v>
+      </c>
+      <c r="O44">
+        <v>11652.648999999999</v>
+      </c>
+      <c r="P44">
+        <v>1362.0640000000001</v>
+      </c>
+      <c r="Q44">
+        <v>88.016999999999996</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3203.08</v>
+      </c>
+      <c r="U44">
+        <v>2000.453</v>
+      </c>
+      <c r="V44">
+        <v>230.64099999999999</v>
+      </c>
+      <c r="W44">
+        <v>-31.649000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-109.8</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>184.41900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3793.85</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>11375.040999999999</v>
+      </c>
+      <c r="H45">
+        <v>14982.671</v>
+      </c>
+      <c r="I45">
+        <v>9191.4279999999999</v>
+      </c>
+      <c r="J45">
+        <v>972.86300000000006</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>10875.263999999999</v>
+      </c>
+      <c r="O45">
+        <v>12115.813</v>
+      </c>
+      <c r="P45">
+        <v>1364.952</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>9400</v>
+      </c>
+      <c r="T45">
+        <v>2866.8580000000002</v>
+      </c>
+      <c r="U45">
+        <v>1825.99</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>162.11600000000001</v>
+      </c>
+      <c r="D46">
+        <v>19981.185000000001</v>
+      </c>
+      <c r="E46">
+        <v>3724.4560000000001</v>
+      </c>
+      <c r="F46">
+        <v>573.26199999999994</v>
+      </c>
+      <c r="G46">
+        <v>11955.78</v>
+      </c>
+      <c r="H46">
+        <v>15978.266</v>
+      </c>
+      <c r="I46">
+        <v>9589.0190000000002</v>
+      </c>
+      <c r="J46">
+        <v>1481.9390000000001</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-142.63800000000001</v>
+      </c>
+      <c r="N46">
+        <v>11301.377</v>
+      </c>
+      <c r="O46">
+        <v>13073.666999999999</v>
+      </c>
+      <c r="P46">
+        <v>1929.02</v>
+      </c>
+      <c r="Q46">
+        <v>544.34500000000003</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2904.5990000000002</v>
+      </c>
+      <c r="U46">
+        <v>2370.335</v>
+      </c>
+      <c r="V46">
+        <v>431.70299999999997</v>
+      </c>
+      <c r="W46">
+        <v>-33.707999999999998</v>
+      </c>
+      <c r="X46">
+        <v>411.28100000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>162.11600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>212.10499999999999</v>
+      </c>
+      <c r="D47">
+        <v>19708.370999999999</v>
+      </c>
+      <c r="E47">
+        <v>3868.6469999999999</v>
+      </c>
+      <c r="F47">
+        <v>679.74099999999999</v>
+      </c>
+      <c r="G47">
+        <v>11603.641</v>
+      </c>
+      <c r="H47">
+        <v>15645.036</v>
+      </c>
+      <c r="I47">
+        <v>9249.7659999999996</v>
+      </c>
+      <c r="J47">
+        <v>1489.971</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>10915</v>
+      </c>
+      <c r="O47">
+        <v>12698.561</v>
+      </c>
+      <c r="P47">
+        <v>1882.135</v>
+      </c>
+      <c r="Q47">
+        <v>-43.241</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2946.4749999999999</v>
+      </c>
+      <c r="U47">
+        <v>2327.0940000000001</v>
+      </c>
+      <c r="V47">
+        <v>236.42099999999999</v>
+      </c>
+      <c r="W47">
+        <v>-33.720999999999997</v>
+      </c>
+      <c r="X47">
+        <v>-232.44499999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>212.10499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>181.27099999999999</v>
+      </c>
+      <c r="D48">
+        <v>19326.807000000001</v>
+      </c>
+      <c r="E48">
+        <v>3943.3470000000002</v>
+      </c>
+      <c r="F48">
+        <v>667.86599999999999</v>
+      </c>
+      <c r="G48">
+        <v>11170.422</v>
+      </c>
+      <c r="H48">
+        <v>15747.592000000001</v>
+      </c>
+      <c r="I48">
+        <v>9170.8629999999994</v>
+      </c>
+      <c r="J48">
+        <v>1483.7260000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>10951.362999999999</v>
+      </c>
+      <c r="O48">
+        <v>12817.877</v>
+      </c>
+      <c r="P48">
+        <v>1875.972</v>
+      </c>
+      <c r="Q48">
+        <v>-671.346</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2929.7150000000001</v>
+      </c>
+      <c r="U48">
+        <v>1655.748</v>
+      </c>
+      <c r="V48">
+        <v>91.930999999999997</v>
+      </c>
+      <c r="W48">
+        <v>-32.652000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-202.80799999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>181.27099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>163.494</v>
+      </c>
+      <c r="D49">
+        <v>19064.442999999999</v>
+      </c>
+      <c r="E49">
+        <v>3784.6190000000001</v>
+      </c>
+      <c r="F49">
+        <v>699.01700000000005</v>
+      </c>
+      <c r="G49">
+        <v>11058.464</v>
+      </c>
+      <c r="H49">
+        <v>15442.255999999999</v>
+      </c>
+      <c r="I49">
+        <v>9492.5889999999999</v>
+      </c>
+      <c r="J49">
+        <v>1395.931</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>11265.585999999999</v>
+      </c>
+      <c r="O49">
+        <v>12987.414000000001</v>
+      </c>
+      <c r="P49">
+        <v>1395.931</v>
+      </c>
+      <c r="Q49">
+        <v>-589.14</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>13400</v>
+      </c>
+      <c r="T49">
+        <v>2454.8420000000001</v>
+      </c>
+      <c r="U49">
+        <v>1066.6079999999999</v>
+      </c>
+      <c r="V49">
+        <v>545.39400000000001</v>
+      </c>
+      <c r="W49">
+        <v>-32.679000000000002</v>
+      </c>
+      <c r="X49">
+        <v>-1092.9100000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>163.494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>168.61099999999999</v>
+      </c>
+      <c r="D50">
+        <v>21059.811000000002</v>
+      </c>
+      <c r="E50">
+        <v>4361.2659999999996</v>
+      </c>
+      <c r="F50">
+        <v>648.52</v>
+      </c>
+      <c r="G50">
+        <v>11022.199000000001</v>
+      </c>
+      <c r="H50">
+        <v>15495.531999999999</v>
+      </c>
+      <c r="I50">
+        <v>9879.85</v>
+      </c>
+      <c r="J50">
+        <v>1396.107</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-796</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>11435.736999999999</v>
+      </c>
+      <c r="O50">
+        <v>13158.297</v>
+      </c>
+      <c r="P50">
+        <v>1396.107</v>
+      </c>
+      <c r="Q50">
+        <v>-649.20399999999995</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2337.2350000000001</v>
+      </c>
+      <c r="U50">
+        <v>417.404</v>
+      </c>
+      <c r="V50">
+        <v>-241.70699999999999</v>
+      </c>
+      <c r="W50">
+        <v>-49.594999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-346.11799999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>168.61099999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>45.634</v>
+      </c>
+      <c r="D51">
+        <v>20523.668000000001</v>
+      </c>
+      <c r="E51">
+        <v>4180.4489999999996</v>
+      </c>
+      <c r="F51">
+        <v>713.53300000000002</v>
+      </c>
+      <c r="G51">
+        <v>11724.784</v>
+      </c>
+      <c r="H51">
+        <v>16111.431</v>
+      </c>
+      <c r="I51">
+        <v>10362.227000000001</v>
+      </c>
+      <c r="J51">
+        <v>1396.2719999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>12042.651</v>
+      </c>
+      <c r="O51">
+        <v>13765.151</v>
+      </c>
+      <c r="P51">
+        <v>1396.2719999999999</v>
+      </c>
+      <c r="Q51">
+        <v>929.89300000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2346.2800000000002</v>
+      </c>
+      <c r="U51">
+        <v>1347.297</v>
+      </c>
+      <c r="V51">
+        <v>985.36199999999997</v>
+      </c>
+      <c r="W51">
+        <v>-48.607999999999997</v>
+      </c>
+      <c r="X51">
+        <v>-18.908999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>45.634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>168.43899999999999</v>
+      </c>
+      <c r="D52">
+        <v>21906.648000000001</v>
+      </c>
+      <c r="E52">
+        <v>4585.4880000000003</v>
+      </c>
+      <c r="F52">
+        <v>556.46600000000001</v>
+      </c>
+      <c r="G52">
+        <v>12139.073</v>
+      </c>
+      <c r="H52">
+        <v>16579.331999999999</v>
+      </c>
+      <c r="I52">
+        <v>11009.224</v>
+      </c>
+      <c r="J52">
+        <v>1396.4390000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>12441.647999999999</v>
+      </c>
+      <c r="O52">
+        <v>14161.138000000001</v>
+      </c>
+      <c r="P52">
+        <v>1396.4390000000001</v>
+      </c>
+      <c r="Q52">
+        <v>220.28800000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2418.194</v>
+      </c>
+      <c r="U52">
+        <v>1567.585</v>
+      </c>
+      <c r="V52">
+        <v>75.409000000000006</v>
+      </c>
+      <c r="W52">
+        <v>-48.802</v>
+      </c>
+      <c r="X52">
+        <v>-135.614</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>168.43899999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>51.023000000000003</v>
+      </c>
+      <c r="D53">
+        <v>24469.040000000001</v>
+      </c>
+      <c r="E53">
+        <v>6051.92</v>
+      </c>
+      <c r="F53">
+        <v>566.41700000000003</v>
+      </c>
+      <c r="G53">
+        <v>14393.651</v>
+      </c>
+      <c r="H53">
+        <v>18918.637999999999</v>
+      </c>
+      <c r="I53">
+        <v>13335.791999999999</v>
+      </c>
+      <c r="J53">
+        <v>1396.606</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>14870.635</v>
+      </c>
+      <c r="O53">
+        <v>16598.893</v>
+      </c>
+      <c r="P53">
+        <v>1396.606</v>
+      </c>
+      <c r="Q53">
+        <v>-336.57900000000001</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>12000</v>
+      </c>
+      <c r="T53">
+        <v>2319.7449999999999</v>
+      </c>
+      <c r="U53">
+        <v>1231.0060000000001</v>
+      </c>
+      <c r="V53">
+        <v>-30.939</v>
+      </c>
+      <c r="W53">
+        <v>-48.710999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-240.346</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>51.023000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>41.384999999999998</v>
+      </c>
+      <c r="D54">
+        <v>29176.362000000001</v>
+      </c>
+      <c r="E54">
+        <v>6214.1930000000002</v>
+      </c>
+      <c r="F54">
+        <v>667.202</v>
+      </c>
+      <c r="G54">
+        <v>15228.344999999999</v>
+      </c>
+      <c r="H54">
+        <v>19796.095000000001</v>
+      </c>
+      <c r="I54">
+        <v>13858.659</v>
+      </c>
+      <c r="J54">
+        <v>1396.7760000000001</v>
+      </c>
+      <c r="K54">
+        <v>423</v>
+      </c>
+      <c r="L54">
+        <v>-99.5</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>15828.897999999999</v>
+      </c>
+      <c r="O54">
+        <v>17548.293000000001</v>
+      </c>
+      <c r="P54">
+        <v>1819.7760000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-883.54100000000005</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2247.8020000000001</v>
+      </c>
+      <c r="U54">
+        <v>347.46499999999997</v>
+      </c>
+      <c r="V54">
+        <v>-1003.643</v>
+      </c>
+      <c r="W54">
+        <v>-54.366999999999997</v>
+      </c>
+      <c r="X54">
+        <v>188.30500000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>41.384999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>180.077</v>
+      </c>
+      <c r="D55">
+        <v>28455.902999999998</v>
+      </c>
+      <c r="E55">
+        <v>6506.4120000000003</v>
+      </c>
+      <c r="F55">
+        <v>728.74400000000003</v>
+      </c>
+      <c r="G55">
+        <v>15760.027</v>
+      </c>
+      <c r="H55">
+        <v>20361.246999999999</v>
+      </c>
+      <c r="I55">
+        <v>14909.626</v>
+      </c>
+      <c r="J55">
+        <v>1396.9480000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>16499.931</v>
+      </c>
+      <c r="O55">
+        <v>18215.732</v>
+      </c>
+      <c r="P55">
+        <v>1396.9480000000001</v>
+      </c>
+      <c r="Q55">
+        <v>349.26499999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2145.5149999999999</v>
+      </c>
+      <c r="U55">
+        <v>696.73</v>
+      </c>
+      <c r="V55">
+        <v>1116.296</v>
+      </c>
+      <c r="W55">
+        <v>-54.03</v>
+      </c>
+      <c r="X55">
+        <v>-707.09900000000005</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>180.077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-12.78</v>
+      </c>
+      <c r="D56">
+        <v>30348.153999999999</v>
+      </c>
+      <c r="E56">
+        <v>6133.2280000000001</v>
+      </c>
+      <c r="F56">
+        <v>689.48</v>
+      </c>
+      <c r="G56">
+        <v>15891.386</v>
+      </c>
+      <c r="H56">
+        <v>20630.606</v>
+      </c>
+      <c r="I56">
+        <v>14809.789000000001</v>
+      </c>
+      <c r="J56">
+        <v>1995.482</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>16339.359</v>
+      </c>
+      <c r="O56">
+        <v>18644.251</v>
+      </c>
+      <c r="P56">
+        <v>1995.482</v>
+      </c>
+      <c r="Q56">
+        <v>565.13400000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1986.355</v>
+      </c>
+      <c r="U56">
+        <v>1261.864</v>
+      </c>
+      <c r="V56">
+        <v>519.84199999999998</v>
+      </c>
+      <c r="W56">
+        <v>-53.161000000000001</v>
+      </c>
+      <c r="X56">
+        <v>236.358</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-117.794</v>
+      </c>
+      <c r="AA56">
+        <v>-12.78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>67.802000000000007</v>
+      </c>
+      <c r="D57">
+        <v>31588.707999999999</v>
+      </c>
+      <c r="E57">
+        <v>6312.8829999999998</v>
+      </c>
+      <c r="F57">
+        <v>872.50400000000002</v>
+      </c>
+      <c r="G57">
+        <v>16800.205000000002</v>
+      </c>
+      <c r="H57">
+        <v>21532.183000000001</v>
+      </c>
+      <c r="I57">
+        <v>15592.834000000001</v>
+      </c>
+      <c r="J57">
+        <v>1995.6320000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>17250.16</v>
+      </c>
+      <c r="O57">
+        <v>19575.284</v>
+      </c>
+      <c r="P57">
+        <v>1995.6320000000001</v>
+      </c>
+      <c r="Q57">
+        <v>546.649</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>13000</v>
+      </c>
+      <c r="T57">
+        <v>1956.8989999999999</v>
+      </c>
+      <c r="U57">
+        <v>1808.5129999999999</v>
+      </c>
+      <c r="V57">
+        <v>830.65800000000002</v>
+      </c>
+      <c r="W57">
+        <v>-52.911000000000001</v>
+      </c>
+      <c r="X57">
+        <v>-219.05500000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>67.802000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-199.947</v>
+      </c>
+      <c r="D58">
+        <v>33588.601999999999</v>
+      </c>
+      <c r="E58">
+        <v>7144.0309999999999</v>
+      </c>
+      <c r="F58">
+        <v>752.29899999999998</v>
+      </c>
+      <c r="G58">
+        <v>20144.71</v>
+      </c>
+      <c r="H58">
+        <v>24904.916000000001</v>
+      </c>
+      <c r="I58">
+        <v>19031.657999999999</v>
+      </c>
+      <c r="J58">
+        <v>1995.885</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>20805.032999999999</v>
+      </c>
+      <c r="O58">
+        <v>23136.57</v>
+      </c>
+      <c r="P58">
+        <v>1995.885</v>
+      </c>
+      <c r="Q58">
+        <v>490.24299999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1768.346</v>
+      </c>
+      <c r="U58">
+        <v>2298.7559999999999</v>
+      </c>
+      <c r="V58">
+        <v>896.96400000000006</v>
+      </c>
+      <c r="W58">
+        <v>-64.025000000000006</v>
+      </c>
+      <c r="X58">
+        <v>-329.565</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-199.947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-513.39</v>
+      </c>
+      <c r="D59">
+        <v>32669.267</v>
+      </c>
+      <c r="E59">
+        <v>7560.1220000000003</v>
+      </c>
+      <c r="F59">
+        <v>890.49300000000005</v>
+      </c>
+      <c r="G59">
+        <v>19556.823</v>
+      </c>
+      <c r="H59">
+        <v>27005.53</v>
+      </c>
+      <c r="I59">
+        <v>18395.153999999999</v>
+      </c>
+      <c r="J59">
+        <v>3942.5169999999998</v>
+      </c>
+      <c r="K59">
+        <v>14.205</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>20225.905999999999</v>
+      </c>
+      <c r="O59">
+        <v>25089.275000000001</v>
+      </c>
+      <c r="P59">
+        <v>4006.7220000000002</v>
+      </c>
+      <c r="Q59">
+        <v>38.222999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1916.2550000000001</v>
+      </c>
+      <c r="U59">
+        <v>2336.9789999999998</v>
+      </c>
+      <c r="V59">
+        <v>741.72</v>
+      </c>
+      <c r="W59">
+        <v>-64.093999999999994</v>
+      </c>
+      <c r="X59">
+        <v>1908.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-513.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>214.16300000000001</v>
+      </c>
+      <c r="D60">
+        <v>34233.555999999997</v>
+      </c>
+      <c r="E60">
+        <v>7596.558</v>
+      </c>
+      <c r="F60">
+        <v>847.89700000000005</v>
+      </c>
+      <c r="G60">
+        <v>19902.034</v>
+      </c>
+      <c r="H60">
+        <v>27333.504000000001</v>
+      </c>
+      <c r="I60">
+        <v>19348.993999999999</v>
+      </c>
+      <c r="J60">
+        <v>3742.7809999999999</v>
+      </c>
+      <c r="K60">
+        <v>7.37</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>21117.291000000001</v>
+      </c>
+      <c r="O60">
+        <v>25757.88</v>
+      </c>
+      <c r="P60">
+        <v>3750.1509999999998</v>
+      </c>
+      <c r="Q60">
+        <v>218.20400000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1575.624</v>
+      </c>
+      <c r="U60">
+        <v>2555.183</v>
+      </c>
+      <c r="V60">
+        <v>1121.5809999999999</v>
+      </c>
+      <c r="W60">
+        <v>-63.935000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-848.19100000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>214.16300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>361.00900000000001</v>
+      </c>
+      <c r="D61">
+        <v>35470.377999999997</v>
+      </c>
+      <c r="E61">
+        <v>8222.9509999999991</v>
+      </c>
+      <c r="F61">
+        <v>973.13099999999997</v>
+      </c>
+      <c r="G61">
+        <v>20334.488000000001</v>
+      </c>
+      <c r="H61">
+        <v>27962.982</v>
+      </c>
+      <c r="I61">
+        <v>20886.438999999998</v>
+      </c>
+      <c r="J61">
+        <v>3739.2249999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>21578.226999999999</v>
+      </c>
+      <c r="O61">
+        <v>27346.596000000001</v>
+      </c>
+      <c r="P61">
+        <v>3739.2249999999999</v>
+      </c>
+      <c r="Q61">
+        <v>-387.74099999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>16500</v>
+      </c>
+      <c r="T61">
+        <v>616.38599999999997</v>
+      </c>
+      <c r="U61">
+        <v>2167.442</v>
+      </c>
+      <c r="V61">
+        <v>1161.963</v>
+      </c>
+      <c r="W61">
+        <v>-61.865000000000002</v>
+      </c>
+      <c r="X61">
+        <v>-1363.1780000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-86.213999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>361.00900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>329.63900000000001</v>
+      </c>
+      <c r="D62">
+        <v>36709.046000000002</v>
+      </c>
+      <c r="E62">
+        <v>8380.652</v>
+      </c>
+      <c r="F62">
+        <v>952.08600000000001</v>
+      </c>
+      <c r="G62">
+        <v>20361.674999999999</v>
+      </c>
+      <c r="H62">
+        <v>30755.802</v>
+      </c>
+      <c r="I62">
+        <v>22536.323</v>
+      </c>
+      <c r="J62">
+        <v>4393.317</v>
+      </c>
+      <c r="K62">
+        <v>8.4120000000000008</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-1746.7660000000001</v>
+      </c>
+      <c r="N62">
+        <v>24024.341</v>
+      </c>
+      <c r="O62">
+        <v>29455.782999999999</v>
+      </c>
+      <c r="P62">
+        <v>4501.7290000000003</v>
+      </c>
+      <c r="Q62">
+        <v>-1189.3520000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1300.019</v>
+      </c>
+      <c r="U62">
+        <v>978.09</v>
+      </c>
+      <c r="V62">
+        <v>751.61400000000003</v>
+      </c>
+      <c r="W62">
+        <v>-71.198999999999998</v>
+      </c>
+      <c r="X62">
+        <v>831.52099999999996</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>47.692999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>329.63900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>603.45000000000005</v>
+      </c>
+      <c r="D63">
+        <v>35698.357000000004</v>
+      </c>
+      <c r="E63">
+        <v>8766.9940000000006</v>
+      </c>
+      <c r="F63">
+        <v>1075.3240000000001</v>
+      </c>
+      <c r="G63">
+        <v>22070.067999999999</v>
+      </c>
+      <c r="H63">
+        <v>32495.355</v>
+      </c>
+      <c r="I63">
+        <v>22986.171999999999</v>
+      </c>
+      <c r="J63">
+        <v>4368.5860000000002</v>
+      </c>
+      <c r="K63">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>23770.91</v>
+      </c>
+      <c r="O63">
+        <v>30304.192999999999</v>
+      </c>
+      <c r="P63">
+        <v>4488.1390000000001</v>
+      </c>
+      <c r="Q63">
+        <v>1547.1969999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2191.1619999999998</v>
+      </c>
+      <c r="U63">
+        <v>2525.2869999999998</v>
+      </c>
+      <c r="V63">
+        <v>880.40599999999995</v>
+      </c>
+      <c r="W63">
+        <v>-70.63</v>
+      </c>
+      <c r="X63">
+        <v>768.85699999999997</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>603.45000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>349.15499999999997</v>
+      </c>
+      <c r="D64">
+        <v>36881.68</v>
+      </c>
+      <c r="E64">
+        <v>8984.5329999999994</v>
+      </c>
+      <c r="F64">
+        <v>986.90300000000002</v>
+      </c>
+      <c r="G64">
+        <v>21457.255000000001</v>
+      </c>
+      <c r="H64">
+        <v>31914.242999999999</v>
+      </c>
+      <c r="I64">
+        <v>22692.063999999998</v>
+      </c>
+      <c r="J64">
+        <v>3794.0360000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>23997.255000000001</v>
+      </c>
+      <c r="O64">
+        <v>30034.925999999999</v>
+      </c>
+      <c r="P64">
+        <v>4407.2160000000003</v>
+      </c>
+      <c r="Q64">
+        <v>-660.08500000000004</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1879.317</v>
+      </c>
+      <c r="U64">
+        <v>1865.202</v>
+      </c>
+      <c r="V64">
+        <v>191.95599999999999</v>
+      </c>
+      <c r="W64">
+        <v>-73.241</v>
+      </c>
+      <c r="X64">
+        <v>-705.53300000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-6.0339999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>349.15499999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>145.685</v>
+      </c>
+      <c r="D65">
+        <v>37560.603000000003</v>
+      </c>
+      <c r="E65">
+        <v>9175.8760000000002</v>
+      </c>
+      <c r="F65">
+        <v>1124.5350000000001</v>
+      </c>
+      <c r="G65">
+        <v>22851.847000000002</v>
+      </c>
+      <c r="H65">
+        <v>33637.500999999997</v>
+      </c>
+      <c r="I65">
+        <v>23926.32</v>
+      </c>
+      <c r="J65">
+        <v>3852.4839999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>25280.368999999999</v>
+      </c>
+      <c r="O65">
+        <v>31508.097000000002</v>
+      </c>
+      <c r="P65">
+        <v>4462.6940000000004</v>
+      </c>
+      <c r="Q65">
+        <v>876.63</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>18000</v>
+      </c>
+      <c r="T65">
+        <v>2129.404</v>
+      </c>
+      <c r="U65">
+        <v>2741.8319999999999</v>
+      </c>
+      <c r="V65">
+        <v>1354.521</v>
+      </c>
+      <c r="W65">
+        <v>-73.406999999999996</v>
+      </c>
+      <c r="X65">
+        <v>-329.77300000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-0.94699999999999995</v>
+      </c>
+      <c r="AA65">
+        <v>145.685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>247.24600000000001</v>
+      </c>
+      <c r="D66">
+        <v>38169.264999999999</v>
+      </c>
+      <c r="E66">
+        <v>9696.2000000000007</v>
+      </c>
+      <c r="F66">
+        <v>1037.68</v>
+      </c>
+      <c r="G66">
+        <v>23078.756000000001</v>
+      </c>
+      <c r="H66">
+        <v>33919.271999999997</v>
+      </c>
+      <c r="I66">
+        <v>24172.341</v>
+      </c>
+      <c r="J66">
+        <v>3871.5839999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-117.491</v>
+      </c>
+      <c r="N66">
+        <v>25542.758000000002</v>
+      </c>
+      <c r="O66">
+        <v>31802.715</v>
+      </c>
+      <c r="P66">
+        <v>4479.5640000000003</v>
+      </c>
+      <c r="Q66">
+        <v>-950.69799999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2116.5569999999998</v>
+      </c>
+      <c r="U66">
+        <v>1791.134</v>
+      </c>
+      <c r="V66">
+        <v>-430.35500000000002</v>
+      </c>
+      <c r="W66">
+        <v>-80.168999999999997</v>
+      </c>
+      <c r="X66">
+        <v>-363.48599999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-19.957999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>247.24600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>411.47300000000001</v>
+      </c>
+      <c r="D67">
+        <v>37147.402000000002</v>
+      </c>
+      <c r="E67">
+        <v>9583.52</v>
+      </c>
+      <c r="F67">
+        <v>1256.4269999999999</v>
+      </c>
+      <c r="G67">
+        <v>23493.920999999998</v>
+      </c>
+      <c r="H67">
+        <v>34397.012999999999</v>
+      </c>
+      <c r="I67">
+        <v>24276.019</v>
+      </c>
+      <c r="J67">
+        <v>3839.598</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>25531.425999999999</v>
+      </c>
+      <c r="O67">
+        <v>31867.721000000001</v>
+      </c>
+      <c r="P67">
+        <v>4455.4449999999997</v>
+      </c>
+      <c r="Q67">
+        <v>613.29899999999998</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2529.2919999999999</v>
+      </c>
+      <c r="U67">
+        <v>2404.433</v>
+      </c>
+      <c r="V67">
+        <v>798.73900000000003</v>
+      </c>
+      <c r="W67">
+        <v>-79.924000000000007</v>
+      </c>
+      <c r="X67">
+        <v>-72.822999999999993</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="AA67">
+        <v>411.47300000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>50.351999999999997</v>
+      </c>
+      <c r="D68">
+        <v>38707.144</v>
+      </c>
+      <c r="E68">
+        <v>10553.258</v>
+      </c>
+      <c r="F68">
+        <v>1079.875</v>
+      </c>
+      <c r="G68">
+        <v>23677.223999999998</v>
+      </c>
+      <c r="H68">
+        <v>34654.01</v>
+      </c>
+      <c r="I68">
+        <v>24804.544000000002</v>
+      </c>
+      <c r="J68">
+        <v>3781.7930000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>25751.076000000001</v>
+      </c>
+      <c r="O68">
+        <v>32100.495999999999</v>
+      </c>
+      <c r="P68">
+        <v>3785.9119999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-1092.9659999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2553.5140000000001</v>
+      </c>
+      <c r="U68">
+        <v>1311.4670000000001</v>
+      </c>
+      <c r="V68">
+        <v>-244.7</v>
+      </c>
+      <c r="W68">
+        <v>-80.075000000000003</v>
+      </c>
+      <c r="X68">
+        <v>-711.17399999999998</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="AA68">
+        <v>50.351999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-344.58699999999999</v>
+      </c>
+      <c r="D69">
+        <v>39120.014999999999</v>
+      </c>
+      <c r="E69">
+        <v>10303.324000000001</v>
+      </c>
+      <c r="F69">
+        <v>1172.02</v>
+      </c>
+      <c r="G69">
+        <v>24303.298999999999</v>
+      </c>
+      <c r="H69">
+        <v>35316.47</v>
+      </c>
+      <c r="I69">
+        <v>25404.042000000001</v>
+      </c>
+      <c r="J69">
+        <v>3781.569</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>26818.165000000001</v>
+      </c>
+      <c r="O69">
+        <v>33252.008999999998</v>
+      </c>
+      <c r="P69">
+        <v>3793.69</v>
+      </c>
+      <c r="Q69">
+        <v>1123.6479999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>19000</v>
+      </c>
+      <c r="T69">
+        <v>2064.4609999999998</v>
+      </c>
+      <c r="U69">
+        <v>2435.1149999999998</v>
+      </c>
+      <c r="V69">
+        <v>1380.454</v>
+      </c>
+      <c r="W69">
+        <v>-80.102000000000004</v>
+      </c>
+      <c r="X69">
+        <v>-165.33099999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-6.577</v>
+      </c>
+      <c r="AA69">
+        <v>-344.58699999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>861.85299999999995</v>
+      </c>
+      <c r="D70">
+        <v>40466.332000000002</v>
+      </c>
+      <c r="E70">
+        <v>10127.782999999999</v>
+      </c>
+      <c r="F70">
+        <v>1112.652</v>
+      </c>
+      <c r="G70">
+        <v>25296.432000000001</v>
+      </c>
+      <c r="H70">
+        <v>36361.51</v>
+      </c>
+      <c r="I70">
+        <v>25346.694</v>
+      </c>
+      <c r="J70">
+        <v>4617.259</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-2969.4140000000002</v>
+      </c>
+      <c r="N70">
+        <v>26740.291000000001</v>
+      </c>
+      <c r="O70">
+        <v>33486.928</v>
+      </c>
+      <c r="P70">
+        <v>4637.32</v>
+      </c>
+      <c r="Q70">
+        <v>602.63199999999995</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>2874.5819999999999</v>
+      </c>
+      <c r="U70">
+        <v>3037.7469999999998</v>
+      </c>
+      <c r="V70">
+        <v>10.326000000000001</v>
+      </c>
+      <c r="W70">
+        <v>-83.555000000000007</v>
+      </c>
+      <c r="X70">
+        <v>734.62900000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>861.85299999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>287.45499999999998</v>
+      </c>
+      <c r="D71">
+        <v>41033.858</v>
+      </c>
+      <c r="E71">
+        <v>11265.013999999999</v>
+      </c>
+      <c r="F71">
+        <v>1255.345</v>
+      </c>
+      <c r="G71">
+        <v>26397.210999999999</v>
+      </c>
+      <c r="H71">
+        <v>38395.732000000004</v>
+      </c>
+      <c r="I71">
+        <v>26403.594000000001</v>
+      </c>
+      <c r="J71">
+        <v>4640.0209999999997</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>28094.403999999999</v>
+      </c>
+      <c r="O71">
+        <v>35032.135999999999</v>
+      </c>
+      <c r="P71">
+        <v>4892.915</v>
+      </c>
+      <c r="Q71">
+        <v>-946.38800000000003</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3363.596</v>
+      </c>
+      <c r="U71">
+        <v>2091.3589999999999</v>
+      </c>
+      <c r="V71">
+        <v>-87.567999999999998</v>
+      </c>
+      <c r="W71">
+        <v>-83.977999999999994</v>
+      </c>
+      <c r="X71">
+        <v>-65.721000000000004</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>287.45499999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>275.80900000000003</v>
+      </c>
+      <c r="D72">
+        <v>43142.309000000001</v>
+      </c>
+      <c r="E72">
+        <v>11764.614</v>
+      </c>
+      <c r="F72">
+        <v>1175.741</v>
+      </c>
+      <c r="G72">
+        <v>26404.401000000002</v>
+      </c>
+      <c r="H72">
+        <v>38309.591999999997</v>
+      </c>
+      <c r="I72">
+        <v>26449.542000000001</v>
+      </c>
+      <c r="J72">
+        <v>4569.7619999999997</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>28099.670999999998</v>
+      </c>
+      <c r="O72">
+        <v>35033.660000000003</v>
+      </c>
+      <c r="P72">
+        <v>4765.3540000000003</v>
+      </c>
+      <c r="Q72">
+        <v>297.56900000000002</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3275.9319999999998</v>
+      </c>
+      <c r="U72">
+        <v>2388.9279999999999</v>
+      </c>
+      <c r="V72">
+        <v>823.28499999999997</v>
+      </c>
+      <c r="W72">
+        <v>-83.430999999999997</v>
+      </c>
+      <c r="X72">
+        <v>-435.26600000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>275.80900000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>233.28800000000001</v>
+      </c>
+      <c r="D73">
+        <v>43297.135999999999</v>
+      </c>
+      <c r="E73">
+        <v>11314.226000000001</v>
+      </c>
+      <c r="F73">
+        <v>1032.6410000000001</v>
+      </c>
+      <c r="G73">
+        <v>25894.371999999999</v>
+      </c>
+      <c r="H73">
+        <v>37669.838000000003</v>
+      </c>
+      <c r="I73">
+        <v>26836.873</v>
+      </c>
+      <c r="J73">
+        <v>4510.8280000000004</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>27869.687000000002</v>
+      </c>
+      <c r="O73">
+        <v>34619.877</v>
+      </c>
+      <c r="P73">
+        <v>4662.4849999999997</v>
+      </c>
+      <c r="Q73">
+        <v>103.58799999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>20000</v>
+      </c>
+      <c r="T73">
+        <v>3049.9609999999998</v>
+      </c>
+      <c r="U73">
+        <v>2492.5160000000001</v>
+      </c>
+      <c r="V73">
+        <v>665.34500000000003</v>
+      </c>
+      <c r="W73">
+        <v>-82.076999999999998</v>
+      </c>
+      <c r="X73">
+        <v>-476.51499999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>233.28800000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>393.65199999999999</v>
+      </c>
+      <c r="D74">
+        <v>45392.451999999997</v>
+      </c>
+      <c r="E74">
+        <v>11979.382</v>
+      </c>
+      <c r="F74">
+        <v>1210.3009999999999</v>
+      </c>
+      <c r="G74">
+        <v>27476.206999999999</v>
+      </c>
+      <c r="H74">
+        <v>39267.822999999997</v>
+      </c>
+      <c r="I74">
+        <v>28336.293000000001</v>
+      </c>
+      <c r="J74">
+        <v>4516.5140000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-513.69100000000003</v>
+      </c>
+      <c r="N74">
+        <v>29351.737000000001</v>
+      </c>
+      <c r="O74">
+        <v>36103.089999999997</v>
+      </c>
+      <c r="P74">
+        <v>4672.8590000000004</v>
+      </c>
+      <c r="Q74">
+        <v>47.64</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>3164.7330000000002</v>
+      </c>
+      <c r="U74">
+        <v>2540.1559999999999</v>
+      </c>
+      <c r="V74">
+        <v>478.96800000000002</v>
+      </c>
+      <c r="W74">
+        <v>-85.534999999999997</v>
+      </c>
+      <c r="X74">
+        <v>-303.70999999999998</v>
+      </c>
+      <c r="Y74">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>393.65199999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>27.135000000000002</v>
+      </c>
+      <c r="D75">
+        <v>43319.601999999999</v>
+      </c>
+      <c r="E75">
+        <v>12222.271000000001</v>
+      </c>
+      <c r="F75">
+        <v>1372.78</v>
+      </c>
+      <c r="G75">
+        <v>27622.183000000001</v>
+      </c>
+      <c r="H75">
+        <v>38810.31</v>
+      </c>
+      <c r="I75">
+        <v>28189.39</v>
+      </c>
+      <c r="J75">
+        <v>4359.8500000000004</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>29211.899000000001</v>
+      </c>
+      <c r="O75">
+        <v>35771.978999999999</v>
+      </c>
+      <c r="P75">
+        <v>4642.8729999999996</v>
+      </c>
+      <c r="Q75">
+        <v>335.59399999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3038.3310000000001</v>
+      </c>
+      <c r="U75">
+        <v>2875.75</v>
+      </c>
+      <c r="V75">
+        <v>624.36400000000003</v>
+      </c>
+      <c r="W75">
+        <v>-84.893000000000001</v>
+      </c>
+      <c r="X75">
+        <v>-205.161</v>
+      </c>
+      <c r="Y75">
+        <v>0.05</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>27.135000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>301.959</v>
+      </c>
+      <c r="D76">
+        <v>45239.264999999999</v>
+      </c>
+      <c r="E76">
+        <v>11989.03</v>
+      </c>
+      <c r="F76">
+        <v>1227.759</v>
+      </c>
+      <c r="G76">
+        <v>27401.777999999998</v>
+      </c>
+      <c r="H76">
+        <v>38478.538</v>
+      </c>
+      <c r="I76">
+        <v>27807.402999999998</v>
+      </c>
+      <c r="J76">
+        <v>4339.8890000000001</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>28788.870999999999</v>
+      </c>
+      <c r="O76">
+        <v>35371.341</v>
+      </c>
+      <c r="P76">
+        <v>4506.0659999999998</v>
+      </c>
+      <c r="Q76">
+        <v>123.809</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3107.1970000000001</v>
+      </c>
+      <c r="U76">
+        <v>2999.5590000000002</v>
+      </c>
+      <c r="V76">
+        <v>567.86900000000003</v>
+      </c>
+      <c r="W76">
+        <v>-84.635999999999996</v>
+      </c>
+      <c r="X76">
+        <v>-358.25400000000002</v>
+      </c>
+      <c r="Y76">
+        <v>0.04</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>301.959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>132.619</v>
+      </c>
+      <c r="D77">
+        <v>45637.802000000003</v>
+      </c>
+      <c r="E77">
+        <v>12386.879000000001</v>
+      </c>
+      <c r="F77">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="G77">
+        <v>28132.054</v>
+      </c>
+      <c r="H77">
+        <v>39171.980000000003</v>
+      </c>
+      <c r="I77">
+        <v>28385.074000000001</v>
+      </c>
+      <c r="J77">
+        <v>4354.3980000000001</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>29581.294000000002</v>
+      </c>
+      <c r="O77">
+        <v>36178.773999999998</v>
+      </c>
+      <c r="P77">
+        <v>4493.41</v>
+      </c>
+      <c r="Q77">
+        <v>374.63499999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>21000</v>
+      </c>
+      <c r="T77">
+        <v>2993.2060000000001</v>
+      </c>
+      <c r="U77">
+        <v>3374.194</v>
+      </c>
+      <c r="V77">
+        <v>672.822</v>
+      </c>
+      <c r="W77">
+        <v>-83.91</v>
+      </c>
+      <c r="X77">
+        <v>-219.38800000000001</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>132.619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>187.64</v>
+      </c>
+      <c r="D78">
+        <v>47864.741999999998</v>
+      </c>
+      <c r="E78">
+        <v>12568.816000000001</v>
+      </c>
+      <c r="F78">
+        <v>1222.722</v>
+      </c>
+      <c r="G78">
+        <v>28954.815999999999</v>
+      </c>
+      <c r="H78">
+        <v>40016.737999999998</v>
+      </c>
+      <c r="I78">
+        <v>29181.86</v>
+      </c>
+      <c r="J78">
+        <v>3636.114</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-83.102999999999994</v>
+      </c>
+      <c r="N78">
+        <v>30630.455999999998</v>
+      </c>
+      <c r="O78">
+        <v>36947.656999999999</v>
+      </c>
+      <c r="P78">
+        <v>4706.6620000000003</v>
+      </c>
+      <c r="Q78">
+        <v>-141.59</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3069.0810000000001</v>
+      </c>
+      <c r="U78">
+        <v>3232.6039999999998</v>
+      </c>
+      <c r="V78">
+        <v>142.81</v>
+      </c>
+      <c r="W78">
+        <v>-83.087999999999994</v>
+      </c>
+      <c r="X78">
+        <v>-222.06100000000001</v>
+      </c>
+      <c r="Y78">
+        <v>440.12400000000002</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>187.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>960.27700000000004</v>
+      </c>
+      <c r="D79">
+        <v>47417.639000000003</v>
+      </c>
+      <c r="E79">
+        <v>14210.17</v>
+      </c>
+      <c r="F79">
+        <v>1393.0419999999999</v>
+      </c>
+      <c r="G79">
+        <v>31180.65</v>
+      </c>
+      <c r="H79">
+        <v>42042.262000000002</v>
+      </c>
+      <c r="I79">
+        <v>30719.987000000001</v>
+      </c>
+      <c r="J79">
+        <v>3622.3870000000002</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>32111.79</v>
+      </c>
+      <c r="O79">
+        <v>38337.148999999998</v>
+      </c>
+      <c r="P79">
+        <v>4671.152</v>
+      </c>
+      <c r="Q79">
+        <v>459.334</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3705.1129999999998</v>
+      </c>
+      <c r="U79">
+        <v>3691.9380000000001</v>
+      </c>
+      <c r="V79">
+        <v>852.89700000000005</v>
+      </c>
+      <c r="W79">
+        <v>-87.453000000000003</v>
+      </c>
+      <c r="X79">
+        <v>-288.10199999999998</v>
+      </c>
+      <c r="Y79">
+        <v>428.06099999999998</v>
+      </c>
+      <c r="Z79">
+        <v>-30.58</v>
+      </c>
+      <c r="AA79">
+        <v>960.27700000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>289.43900000000002</v>
+      </c>
+      <c r="D80">
+        <v>45366.777000000002</v>
+      </c>
+      <c r="E80">
+        <v>12548.398999999999</v>
+      </c>
+      <c r="F80">
+        <v>1226.1479999999999</v>
+      </c>
+      <c r="G80">
+        <v>29918.572</v>
+      </c>
+      <c r="H80">
+        <v>40789.703000000001</v>
+      </c>
+      <c r="I80">
+        <v>29145.149000000001</v>
+      </c>
+      <c r="J80">
+        <v>3620.6410000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>30631.571</v>
+      </c>
+      <c r="O80">
+        <v>36821.752</v>
+      </c>
+      <c r="P80">
+        <v>4661.8459999999995</v>
+      </c>
+      <c r="Q80">
+        <v>-271.666</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3967.951</v>
+      </c>
+      <c r="U80">
+        <v>3420.2719999999999</v>
+      </c>
+      <c r="V80">
+        <v>-87.899000000000001</v>
+      </c>
+      <c r="W80">
+        <v>-86.222999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-73.459999999999994</v>
+      </c>
+      <c r="Y80">
+        <v>424.34800000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-4.25</v>
+      </c>
+      <c r="AA80">
+        <v>289.43900000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-4846.0720000000001</v>
+      </c>
+      <c r="D81">
+        <v>49244.767999999996</v>
+      </c>
+      <c r="E81">
+        <v>13846.300999999999</v>
+      </c>
+      <c r="F81">
+        <v>1346.317</v>
+      </c>
+      <c r="G81">
+        <v>33055.701999999997</v>
+      </c>
+      <c r="H81">
+        <v>44274.83</v>
+      </c>
+      <c r="I81">
+        <v>31705.055</v>
+      </c>
+      <c r="J81">
+        <v>3618.261</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>33853.076999999997</v>
+      </c>
+      <c r="O81">
+        <v>45114.466</v>
+      </c>
+      <c r="P81">
+        <v>4597.6139999999996</v>
+      </c>
+      <c r="Q81">
+        <v>1177.4739999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>21000</v>
+      </c>
+      <c r="T81">
+        <v>-839.63599999999997</v>
+      </c>
+      <c r="U81">
+        <v>4597.7460000000001</v>
+      </c>
+      <c r="V81">
+        <v>1299.232</v>
+      </c>
+      <c r="W81">
+        <v>-86.813999999999993</v>
+      </c>
+      <c r="X81">
+        <v>-19.994</v>
+      </c>
+      <c r="Y81">
+        <v>385.50700000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-21.25</v>
+      </c>
+      <c r="AA81">
+        <v>-4846.0720000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>374.84500000000003</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>52516.555999999997</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>14886.252</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1452.23</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>34700.220999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>45846.767999999996</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>33449.69</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3640.741</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-462.64299999999997</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>35044.451000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>46358.315999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4588.625</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>293.17200000000003</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>-511.548</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>4890.9179999999997</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>903.053</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-91.102999999999994</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-544.471</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>483.291</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>374.84500000000003</v>
       </c>
     </row>
